--- a/backend/attendance_data.xlsx
+++ b/backend/attendance_data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2219" uniqueCount="89">
   <si>
     <t>Finger ID</t>
   </si>
@@ -34,6 +34,114 @@
     <t>Time Out</t>
   </si>
   <si>
+    <t>000000007</t>
+  </si>
+  <si>
+    <t>SAB062024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aam Muamar </t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>2025-01-26</t>
+  </si>
+  <si>
+    <t>ALPHA</t>
+  </si>
+  <si>
+    <t>2025-01-27</t>
+  </si>
+  <si>
+    <t>2025-01-28</t>
+  </si>
+  <si>
+    <t>2025-01-29</t>
+  </si>
+  <si>
+    <t>2025-01-30</t>
+  </si>
+  <si>
+    <t>2025-01-31</t>
+  </si>
+  <si>
+    <t>2025-02-01</t>
+  </si>
+  <si>
+    <t>2025-02-02</t>
+  </si>
+  <si>
+    <t>2025-02-03</t>
+  </si>
+  <si>
+    <t>2025-02-04</t>
+  </si>
+  <si>
+    <t>2025-02-05</t>
+  </si>
+  <si>
+    <t>2025-02-06</t>
+  </si>
+  <si>
+    <t>2025-02-07</t>
+  </si>
+  <si>
+    <t>2025-02-08</t>
+  </si>
+  <si>
+    <t>2025-02-09</t>
+  </si>
+  <si>
+    <t>2025-02-10</t>
+  </si>
+  <si>
+    <t>2025-02-11</t>
+  </si>
+  <si>
+    <t>2025-02-12</t>
+  </si>
+  <si>
+    <t>2025-02-13</t>
+  </si>
+  <si>
+    <t>2025-02-14</t>
+  </si>
+  <si>
+    <t>2025-02-15</t>
+  </si>
+  <si>
+    <t>2025-02-16</t>
+  </si>
+  <si>
+    <t>2025-02-17</t>
+  </si>
+  <si>
+    <t>2025-02-18</t>
+  </si>
+  <si>
+    <t>2025-02-19</t>
+  </si>
+  <si>
+    <t>2025-02-20</t>
+  </si>
+  <si>
+    <t>2025-02-21</t>
+  </si>
+  <si>
+    <t>2025-02-22</t>
+  </si>
+  <si>
+    <t>2025-02-23</t>
+  </si>
+  <si>
+    <t>2025-02-24</t>
+  </si>
+  <si>
+    <t>2025-02-25</t>
+  </si>
+  <si>
     <t>000000000</t>
   </si>
   <si>
@@ -43,112 +151,25 @@
     <t>Adi</t>
   </si>
   <si>
-    <t>OFF</t>
-  </si>
-  <si>
-    <t>2025-01-01</t>
-  </si>
-  <si>
     <t>00:00:00</t>
   </si>
   <si>
     <t>MASUK</t>
   </si>
   <si>
-    <t>2025-01-02</t>
-  </si>
-  <si>
     <t>08:01:00</t>
   </si>
   <si>
     <t>17:01:00</t>
   </si>
   <si>
-    <t>2025-01-03</t>
-  </si>
-  <si>
-    <t>2025-01-04</t>
-  </si>
-  <si>
-    <t>2025-01-05</t>
-  </si>
-  <si>
-    <t>2025-01-06</t>
-  </si>
-  <si>
-    <t>2025-01-07</t>
-  </si>
-  <si>
-    <t>2025-01-08</t>
-  </si>
-  <si>
-    <t>2025-01-09</t>
-  </si>
-  <si>
-    <t>2025-01-10</t>
-  </si>
-  <si>
-    <t>2025-01-11</t>
-  </si>
-  <si>
-    <t>2025-01-12</t>
-  </si>
-  <si>
-    <t>2025-01-13</t>
-  </si>
-  <si>
-    <t>2025-01-14</t>
-  </si>
-  <si>
-    <t>2025-01-15</t>
-  </si>
-  <si>
-    <t>2025-01-16</t>
-  </si>
-  <si>
-    <t>2025-01-17</t>
-  </si>
-  <si>
-    <t>2025-01-18</t>
-  </si>
-  <si>
-    <t>2025-01-19</t>
-  </si>
-  <si>
-    <t>2025-01-20</t>
-  </si>
-  <si>
-    <t>2025-01-21</t>
-  </si>
-  <si>
-    <t>2025-01-22</t>
-  </si>
-  <si>
-    <t>2025-01-23</t>
-  </si>
-  <si>
-    <t>2025-01-24</t>
-  </si>
-  <si>
-    <t>2025-01-25</t>
-  </si>
-  <si>
-    <t>2025-01-26</t>
-  </si>
-  <si>
-    <t>2025-01-27</t>
-  </si>
-  <si>
-    <t>2025-01-28</t>
-  </si>
-  <si>
-    <t>2025-01-29</t>
-  </si>
-  <si>
-    <t>2025-01-30</t>
-  </si>
-  <si>
-    <t>2025-01-31</t>
+    <t>000000003</t>
+  </si>
+  <si>
+    <t>SAB032024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agung Syahputra </t>
   </si>
   <si>
     <t>000000015</t>
@@ -160,10 +181,103 @@
     <t xml:space="preserve">Ardiansyah </t>
   </si>
   <si>
-    <t>08:33:00</t>
-  </si>
-  <si>
-    <t>17:33:00</t>
+    <t>000000009</t>
+  </si>
+  <si>
+    <t>SAB082024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arif Rahman Hakim </t>
+  </si>
+  <si>
+    <t>000000012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSA122024 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dwi Aulia Putri </t>
+  </si>
+  <si>
+    <t>000000011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAB142024 </t>
+  </si>
+  <si>
+    <t>Hendra Budi Gunawan</t>
+  </si>
+  <si>
+    <t>000000016</t>
+  </si>
+  <si>
+    <t>SAB122024</t>
+  </si>
+  <si>
+    <t>Intan Fitria Sani</t>
+  </si>
+  <si>
+    <t>000000004</t>
+  </si>
+  <si>
+    <t>SAB052024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mardianto </t>
+  </si>
+  <si>
+    <t>000000013</t>
+  </si>
+  <si>
+    <t>NSA112023</t>
+  </si>
+  <si>
+    <t>Muhammad Yusuf Elvani</t>
+  </si>
+  <si>
+    <t>000000001</t>
+  </si>
+  <si>
+    <t>SAB010001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tatang Turono </t>
+  </si>
+  <si>
+    <t>000000008</t>
+  </si>
+  <si>
+    <t>SAB132024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wahyu Ade Setiawan </t>
+  </si>
+  <si>
+    <t>000000014</t>
+  </si>
+  <si>
+    <t>SAB112024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wulansari </t>
+  </si>
+  <si>
+    <t>000000010</t>
+  </si>
+  <si>
+    <t>SAB092024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yuwan Firmansyah </t>
+  </si>
+  <si>
+    <t>000000002</t>
+  </si>
+  <si>
+    <t>SAB042024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zellyan </t>
   </si>
 </sst>
 </file>
@@ -540,7 +654,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G63"/>
+  <dimension ref="A1:G441"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
@@ -589,12 +703,6 @@
       <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -607,16 +715,10 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
         <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -630,16 +732,10 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -653,16 +749,10 @@
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -676,16 +766,10 @@
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -699,16 +783,10 @@
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -722,16 +800,10 @@
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -745,16 +817,10 @@
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -768,16 +834,10 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -791,16 +851,10 @@
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -814,16 +868,10 @@
         <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -837,16 +885,10 @@
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -860,16 +902,10 @@
         <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -883,16 +919,10 @@
         <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -906,16 +936,10 @@
         <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -929,16 +953,10 @@
         <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E17" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -952,16 +970,10 @@
         <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E18" t="s">
-        <v>31</v>
-      </c>
-      <c r="F18" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -975,16 +987,10 @@
         <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>32</v>
-      </c>
-      <c r="F19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -998,16 +1004,10 @@
         <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E20" t="s">
-        <v>33</v>
-      </c>
-      <c r="F20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1021,16 +1021,10 @@
         <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E21" t="s">
-        <v>34</v>
-      </c>
-      <c r="F21" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1044,16 +1038,10 @@
         <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>35</v>
-      </c>
-      <c r="F22" t="s">
-        <v>15</v>
-      </c>
-      <c r="G22" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1067,16 +1055,10 @@
         <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>36</v>
-      </c>
-      <c r="F23" t="s">
-        <v>15</v>
-      </c>
-      <c r="G23" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1090,16 +1072,10 @@
         <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E24" t="s">
-        <v>37</v>
-      </c>
-      <c r="F24" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1113,16 +1089,10 @@
         <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E25" t="s">
-        <v>38</v>
-      </c>
-      <c r="F25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1136,16 +1106,10 @@
         <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E26" t="s">
-        <v>39</v>
-      </c>
-      <c r="F26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1159,16 +1123,10 @@
         <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E27" t="s">
-        <v>40</v>
-      </c>
-      <c r="F27" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1182,16 +1140,10 @@
         <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E28" t="s">
-        <v>41</v>
-      </c>
-      <c r="F28" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1205,16 +1157,10 @@
         <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>42</v>
-      </c>
-      <c r="F29" t="s">
-        <v>15</v>
-      </c>
-      <c r="G29" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1231,13 +1177,7 @@
         <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
-      </c>
-      <c r="F30" t="s">
-        <v>12</v>
-      </c>
-      <c r="G30" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1251,16 +1191,10 @@
         <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
-      </c>
-      <c r="F31" t="s">
-        <v>15</v>
-      </c>
-      <c r="G31" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1274,27 +1208,21 @@
         <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
-      </c>
-      <c r="F32" t="s">
-        <v>15</v>
-      </c>
-      <c r="G32" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B33" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C33" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D33" t="s">
         <v>10</v>
@@ -1303,700 +1231,6976 @@
         <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="G33" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" t="s">
         <v>46</v>
       </c>
-      <c r="B34" t="s">
-        <v>47</v>
-      </c>
-      <c r="C34" t="s">
-        <v>48</v>
-      </c>
-      <c r="D34" t="s">
-        <v>13</v>
-      </c>
-      <c r="E34" t="s">
-        <v>14</v>
-      </c>
-      <c r="F34" t="s">
-        <v>49</v>
-      </c>
       <c r="G34" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" t="s">
         <v>47</v>
       </c>
-      <c r="C35" t="s">
+      <c r="E35" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" t="s">
         <v>48</v>
       </c>
-      <c r="D35" t="s">
-        <v>13</v>
-      </c>
-      <c r="E35" t="s">
-        <v>17</v>
-      </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>49</v>
-      </c>
-      <c r="G35" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36" t="s">
         <v>46</v>
       </c>
-      <c r="B36" t="s">
-        <v>47</v>
-      </c>
-      <c r="C36" t="s">
-        <v>48</v>
-      </c>
-      <c r="D36" t="s">
-        <v>10</v>
-      </c>
-      <c r="E36" t="s">
-        <v>18</v>
-      </c>
-      <c r="F36" t="s">
-        <v>12</v>
-      </c>
       <c r="G36" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" t="s">
+        <v>45</v>
+      </c>
+      <c r="D37" t="s">
         <v>47</v>
       </c>
-      <c r="C37" t="s">
+      <c r="E37" t="s">
+        <v>16</v>
+      </c>
+      <c r="F37" t="s">
         <v>48</v>
       </c>
-      <c r="D37" t="s">
-        <v>10</v>
-      </c>
-      <c r="E37" t="s">
-        <v>19</v>
-      </c>
-      <c r="F37" t="s">
-        <v>12</v>
-      </c>
       <c r="G37" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B38" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38" t="s">
+        <v>45</v>
+      </c>
+      <c r="D38" t="s">
         <v>47</v>
       </c>
-      <c r="C38" t="s">
+      <c r="E38" t="s">
+        <v>17</v>
+      </c>
+      <c r="F38" t="s">
         <v>48</v>
       </c>
-      <c r="D38" t="s">
-        <v>13</v>
-      </c>
-      <c r="E38" t="s">
-        <v>20</v>
-      </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>49</v>
-      </c>
-      <c r="G38" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B39" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C39" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D39" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>21</v>
-      </c>
-      <c r="F39" t="s">
-        <v>49</v>
-      </c>
-      <c r="G39" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B40" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C40" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D40" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" t="s">
         <v>13</v>
-      </c>
-      <c r="E40" t="s">
-        <v>22</v>
-      </c>
-      <c r="F40" t="s">
-        <v>49</v>
-      </c>
-      <c r="G40" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B41" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C41" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D41" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E41" t="s">
-        <v>23</v>
-      </c>
-      <c r="F41" t="s">
-        <v>49</v>
-      </c>
-      <c r="G41" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B42" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C42" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E42" t="s">
-        <v>24</v>
-      </c>
-      <c r="F42" t="s">
-        <v>49</v>
-      </c>
-      <c r="G42" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B43" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C43" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E43" t="s">
-        <v>25</v>
-      </c>
-      <c r="F43" t="s">
-        <v>12</v>
-      </c>
-      <c r="G43" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B44" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C44" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E44" t="s">
-        <v>26</v>
-      </c>
-      <c r="F44" t="s">
-        <v>12</v>
-      </c>
-      <c r="G44" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C45" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D45" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>27</v>
-      </c>
-      <c r="F45" t="s">
-        <v>49</v>
-      </c>
-      <c r="G45" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B46" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C46" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D46" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>28</v>
-      </c>
-      <c r="F46" t="s">
-        <v>49</v>
-      </c>
-      <c r="G46" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C47" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E47" t="s">
-        <v>29</v>
-      </c>
-      <c r="F47" t="s">
-        <v>49</v>
-      </c>
-      <c r="G47" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C48" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D48" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E48" t="s">
-        <v>30</v>
-      </c>
-      <c r="F48" t="s">
-        <v>49</v>
-      </c>
-      <c r="G48" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C49" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D49" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E49" t="s">
-        <v>31</v>
-      </c>
-      <c r="F49" t="s">
-        <v>49</v>
-      </c>
-      <c r="G49" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C50" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E50" t="s">
-        <v>32</v>
-      </c>
-      <c r="F50" t="s">
-        <v>12</v>
-      </c>
-      <c r="G50" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C51" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E51" t="s">
-        <v>33</v>
-      </c>
-      <c r="F51" t="s">
-        <v>12</v>
-      </c>
-      <c r="G51" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C52" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D52" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>34</v>
-      </c>
-      <c r="F52" t="s">
-        <v>49</v>
-      </c>
-      <c r="G52" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B53" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C53" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D53" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>35</v>
-      </c>
-      <c r="F53" t="s">
-        <v>49</v>
-      </c>
-      <c r="G53" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B54" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C54" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D54" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E54" t="s">
-        <v>36</v>
-      </c>
-      <c r="F54" t="s">
-        <v>49</v>
-      </c>
-      <c r="G54" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B55" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C55" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E55" t="s">
-        <v>37</v>
-      </c>
-      <c r="F55" t="s">
-        <v>49</v>
-      </c>
-      <c r="G55" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B56" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C56" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D56" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E56" t="s">
-        <v>38</v>
-      </c>
-      <c r="F56" t="s">
-        <v>49</v>
-      </c>
-      <c r="G56" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B57" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C57" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E57" t="s">
-        <v>39</v>
-      </c>
-      <c r="F57" t="s">
-        <v>12</v>
-      </c>
-      <c r="G57" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B58" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C58" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E58" t="s">
-        <v>40</v>
-      </c>
-      <c r="F58" t="s">
-        <v>12</v>
-      </c>
-      <c r="G58" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B59" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C59" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D59" t="s">
         <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>41</v>
-      </c>
-      <c r="F59" t="s">
-        <v>12</v>
-      </c>
-      <c r="G59" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B60" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C60" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D60" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>42</v>
-      </c>
-      <c r="F60" t="s">
-        <v>49</v>
-      </c>
-      <c r="G60" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B61" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C61" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E61" t="s">
-        <v>43</v>
-      </c>
-      <c r="F61" t="s">
-        <v>12</v>
-      </c>
-      <c r="G61" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B62" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C62" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D62" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
-      </c>
-      <c r="F62" t="s">
-        <v>49</v>
-      </c>
-      <c r="G62" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B63" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C63" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D63" t="s">
+        <v>12</v>
+      </c>
+      <c r="E63" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>50</v>
+      </c>
+      <c r="B64" t="s">
+        <v>51</v>
+      </c>
+      <c r="C64" t="s">
+        <v>52</v>
+      </c>
+      <c r="D64" t="s">
+        <v>12</v>
+      </c>
+      <c r="E64" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>50</v>
+      </c>
+      <c r="B65" t="s">
+        <v>51</v>
+      </c>
+      <c r="C65" t="s">
+        <v>52</v>
+      </c>
+      <c r="D65" t="s">
+        <v>12</v>
+      </c>
+      <c r="E65" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>50</v>
+      </c>
+      <c r="B66" t="s">
+        <v>51</v>
+      </c>
+      <c r="C66" t="s">
+        <v>52</v>
+      </c>
+      <c r="D66" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>50</v>
+      </c>
+      <c r="B67" t="s">
+        <v>51</v>
+      </c>
+      <c r="C67" t="s">
+        <v>52</v>
+      </c>
+      <c r="D67" t="s">
+        <v>10</v>
+      </c>
+      <c r="E67" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>50</v>
+      </c>
+      <c r="B68" t="s">
+        <v>51</v>
+      </c>
+      <c r="C68" t="s">
+        <v>52</v>
+      </c>
+      <c r="D68" t="s">
+        <v>12</v>
+      </c>
+      <c r="E68" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>50</v>
+      </c>
+      <c r="B69" t="s">
+        <v>51</v>
+      </c>
+      <c r="C69" t="s">
+        <v>52</v>
+      </c>
+      <c r="D69" t="s">
+        <v>12</v>
+      </c>
+      <c r="E69" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>53</v>
+      </c>
+      <c r="B70" t="s">
+        <v>54</v>
+      </c>
+      <c r="C70" t="s">
+        <v>55</v>
+      </c>
+      <c r="D70" t="s">
+        <v>10</v>
+      </c>
+      <c r="E70" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>53</v>
+      </c>
+      <c r="B71" t="s">
+        <v>54</v>
+      </c>
+      <c r="C71" t="s">
+        <v>55</v>
+      </c>
+      <c r="D71" t="s">
+        <v>12</v>
+      </c>
+      <c r="E71" t="s">
         <v>13</v>
       </c>
-      <c r="E63" t="s">
-        <v>45</v>
-      </c>
-      <c r="F63" t="s">
-        <v>49</v>
-      </c>
-      <c r="G63" t="s">
-        <v>50</v>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>53</v>
+      </c>
+      <c r="B72" t="s">
+        <v>54</v>
+      </c>
+      <c r="C72" t="s">
+        <v>55</v>
+      </c>
+      <c r="D72" t="s">
+        <v>12</v>
+      </c>
+      <c r="E72" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>53</v>
+      </c>
+      <c r="B73" t="s">
+        <v>54</v>
+      </c>
+      <c r="C73" t="s">
+        <v>55</v>
+      </c>
+      <c r="D73" t="s">
+        <v>12</v>
+      </c>
+      <c r="E73" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>53</v>
+      </c>
+      <c r="B74" t="s">
+        <v>54</v>
+      </c>
+      <c r="C74" t="s">
+        <v>55</v>
+      </c>
+      <c r="D74" t="s">
+        <v>12</v>
+      </c>
+      <c r="E74" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>53</v>
+      </c>
+      <c r="B75" t="s">
+        <v>54</v>
+      </c>
+      <c r="C75" t="s">
+        <v>55</v>
+      </c>
+      <c r="D75" t="s">
+        <v>12</v>
+      </c>
+      <c r="E75" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>53</v>
+      </c>
+      <c r="B76" t="s">
+        <v>54</v>
+      </c>
+      <c r="C76" t="s">
+        <v>55</v>
+      </c>
+      <c r="D76" t="s">
+        <v>10</v>
+      </c>
+      <c r="E76" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>53</v>
+      </c>
+      <c r="B77" t="s">
+        <v>54</v>
+      </c>
+      <c r="C77" t="s">
+        <v>55</v>
+      </c>
+      <c r="D77" t="s">
+        <v>10</v>
+      </c>
+      <c r="E77" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>53</v>
+      </c>
+      <c r="B78" t="s">
+        <v>54</v>
+      </c>
+      <c r="C78" t="s">
+        <v>55</v>
+      </c>
+      <c r="D78" t="s">
+        <v>12</v>
+      </c>
+      <c r="E78" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>53</v>
+      </c>
+      <c r="B79" t="s">
+        <v>54</v>
+      </c>
+      <c r="C79" t="s">
+        <v>55</v>
+      </c>
+      <c r="D79" t="s">
+        <v>12</v>
+      </c>
+      <c r="E79" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>53</v>
+      </c>
+      <c r="B80" t="s">
+        <v>54</v>
+      </c>
+      <c r="C80" t="s">
+        <v>55</v>
+      </c>
+      <c r="D80" t="s">
+        <v>12</v>
+      </c>
+      <c r="E80" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>53</v>
+      </c>
+      <c r="B81" t="s">
+        <v>54</v>
+      </c>
+      <c r="C81" t="s">
+        <v>55</v>
+      </c>
+      <c r="D81" t="s">
+        <v>12</v>
+      </c>
+      <c r="E81" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>53</v>
+      </c>
+      <c r="B82" t="s">
+        <v>54</v>
+      </c>
+      <c r="C82" t="s">
+        <v>55</v>
+      </c>
+      <c r="D82" t="s">
+        <v>12</v>
+      </c>
+      <c r="E82" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>53</v>
+      </c>
+      <c r="B83" t="s">
+        <v>54</v>
+      </c>
+      <c r="C83" t="s">
+        <v>55</v>
+      </c>
+      <c r="D83" t="s">
+        <v>10</v>
+      </c>
+      <c r="E83" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>53</v>
+      </c>
+      <c r="B84" t="s">
+        <v>54</v>
+      </c>
+      <c r="C84" t="s">
+        <v>55</v>
+      </c>
+      <c r="D84" t="s">
+        <v>10</v>
+      </c>
+      <c r="E84" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>53</v>
+      </c>
+      <c r="B85" t="s">
+        <v>54</v>
+      </c>
+      <c r="C85" t="s">
+        <v>55</v>
+      </c>
+      <c r="D85" t="s">
+        <v>12</v>
+      </c>
+      <c r="E85" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>53</v>
+      </c>
+      <c r="B86" t="s">
+        <v>54</v>
+      </c>
+      <c r="C86" t="s">
+        <v>55</v>
+      </c>
+      <c r="D86" t="s">
+        <v>12</v>
+      </c>
+      <c r="E86" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>53</v>
+      </c>
+      <c r="B87" t="s">
+        <v>54</v>
+      </c>
+      <c r="C87" t="s">
+        <v>55</v>
+      </c>
+      <c r="D87" t="s">
+        <v>12</v>
+      </c>
+      <c r="E87" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>53</v>
+      </c>
+      <c r="B88" t="s">
+        <v>54</v>
+      </c>
+      <c r="C88" t="s">
+        <v>55</v>
+      </c>
+      <c r="D88" t="s">
+        <v>12</v>
+      </c>
+      <c r="E88" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>53</v>
+      </c>
+      <c r="B89" t="s">
+        <v>54</v>
+      </c>
+      <c r="C89" t="s">
+        <v>55</v>
+      </c>
+      <c r="D89" t="s">
+        <v>12</v>
+      </c>
+      <c r="E89" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>53</v>
+      </c>
+      <c r="B90" t="s">
+        <v>54</v>
+      </c>
+      <c r="C90" t="s">
+        <v>55</v>
+      </c>
+      <c r="D90" t="s">
+        <v>10</v>
+      </c>
+      <c r="E90" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>53</v>
+      </c>
+      <c r="B91" t="s">
+        <v>54</v>
+      </c>
+      <c r="C91" t="s">
+        <v>55</v>
+      </c>
+      <c r="D91" t="s">
+        <v>10</v>
+      </c>
+      <c r="E91" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>53</v>
+      </c>
+      <c r="B92" t="s">
+        <v>54</v>
+      </c>
+      <c r="C92" t="s">
+        <v>55</v>
+      </c>
+      <c r="D92" t="s">
+        <v>12</v>
+      </c>
+      <c r="E92" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>53</v>
+      </c>
+      <c r="B93" t="s">
+        <v>54</v>
+      </c>
+      <c r="C93" t="s">
+        <v>55</v>
+      </c>
+      <c r="D93" t="s">
+        <v>12</v>
+      </c>
+      <c r="E93" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>53</v>
+      </c>
+      <c r="B94" t="s">
+        <v>54</v>
+      </c>
+      <c r="C94" t="s">
+        <v>55</v>
+      </c>
+      <c r="D94" t="s">
+        <v>12</v>
+      </c>
+      <c r="E94" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>53</v>
+      </c>
+      <c r="B95" t="s">
+        <v>54</v>
+      </c>
+      <c r="C95" t="s">
+        <v>55</v>
+      </c>
+      <c r="D95" t="s">
+        <v>12</v>
+      </c>
+      <c r="E95" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>53</v>
+      </c>
+      <c r="B96" t="s">
+        <v>54</v>
+      </c>
+      <c r="C96" t="s">
+        <v>55</v>
+      </c>
+      <c r="D96" t="s">
+        <v>12</v>
+      </c>
+      <c r="E96" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>53</v>
+      </c>
+      <c r="B97" t="s">
+        <v>54</v>
+      </c>
+      <c r="C97" t="s">
+        <v>55</v>
+      </c>
+      <c r="D97" t="s">
+        <v>10</v>
+      </c>
+      <c r="E97" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>53</v>
+      </c>
+      <c r="B98" t="s">
+        <v>54</v>
+      </c>
+      <c r="C98" t="s">
+        <v>55</v>
+      </c>
+      <c r="D98" t="s">
+        <v>10</v>
+      </c>
+      <c r="E98" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>53</v>
+      </c>
+      <c r="B99" t="s">
+        <v>54</v>
+      </c>
+      <c r="C99" t="s">
+        <v>55</v>
+      </c>
+      <c r="D99" t="s">
+        <v>12</v>
+      </c>
+      <c r="E99" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>53</v>
+      </c>
+      <c r="B100" t="s">
+        <v>54</v>
+      </c>
+      <c r="C100" t="s">
+        <v>55</v>
+      </c>
+      <c r="D100" t="s">
+        <v>12</v>
+      </c>
+      <c r="E100" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>56</v>
+      </c>
+      <c r="B101" t="s">
+        <v>57</v>
+      </c>
+      <c r="C101" t="s">
+        <v>58</v>
+      </c>
+      <c r="D101" t="s">
+        <v>10</v>
+      </c>
+      <c r="E101" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>56</v>
+      </c>
+      <c r="B102" t="s">
+        <v>57</v>
+      </c>
+      <c r="C102" t="s">
+        <v>58</v>
+      </c>
+      <c r="D102" t="s">
+        <v>12</v>
+      </c>
+      <c r="E102" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>56</v>
+      </c>
+      <c r="B103" t="s">
+        <v>57</v>
+      </c>
+      <c r="C103" t="s">
+        <v>58</v>
+      </c>
+      <c r="D103" t="s">
+        <v>12</v>
+      </c>
+      <c r="E103" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>56</v>
+      </c>
+      <c r="B104" t="s">
+        <v>57</v>
+      </c>
+      <c r="C104" t="s">
+        <v>58</v>
+      </c>
+      <c r="D104" t="s">
+        <v>12</v>
+      </c>
+      <c r="E104" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>56</v>
+      </c>
+      <c r="B105" t="s">
+        <v>57</v>
+      </c>
+      <c r="C105" t="s">
+        <v>58</v>
+      </c>
+      <c r="D105" t="s">
+        <v>12</v>
+      </c>
+      <c r="E105" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>56</v>
+      </c>
+      <c r="B106" t="s">
+        <v>57</v>
+      </c>
+      <c r="C106" t="s">
+        <v>58</v>
+      </c>
+      <c r="D106" t="s">
+        <v>12</v>
+      </c>
+      <c r="E106" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>56</v>
+      </c>
+      <c r="B107" t="s">
+        <v>57</v>
+      </c>
+      <c r="C107" t="s">
+        <v>58</v>
+      </c>
+      <c r="D107" t="s">
+        <v>10</v>
+      </c>
+      <c r="E107" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>56</v>
+      </c>
+      <c r="B108" t="s">
+        <v>57</v>
+      </c>
+      <c r="C108" t="s">
+        <v>58</v>
+      </c>
+      <c r="D108" t="s">
+        <v>10</v>
+      </c>
+      <c r="E108" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>56</v>
+      </c>
+      <c r="B109" t="s">
+        <v>57</v>
+      </c>
+      <c r="C109" t="s">
+        <v>58</v>
+      </c>
+      <c r="D109" t="s">
+        <v>12</v>
+      </c>
+      <c r="E109" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>56</v>
+      </c>
+      <c r="B110" t="s">
+        <v>57</v>
+      </c>
+      <c r="C110" t="s">
+        <v>58</v>
+      </c>
+      <c r="D110" t="s">
+        <v>12</v>
+      </c>
+      <c r="E110" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>56</v>
+      </c>
+      <c r="B111" t="s">
+        <v>57</v>
+      </c>
+      <c r="C111" t="s">
+        <v>58</v>
+      </c>
+      <c r="D111" t="s">
+        <v>12</v>
+      </c>
+      <c r="E111" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>56</v>
+      </c>
+      <c r="B112" t="s">
+        <v>57</v>
+      </c>
+      <c r="C112" t="s">
+        <v>58</v>
+      </c>
+      <c r="D112" t="s">
+        <v>12</v>
+      </c>
+      <c r="E112" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>56</v>
+      </c>
+      <c r="B113" t="s">
+        <v>57</v>
+      </c>
+      <c r="C113" t="s">
+        <v>58</v>
+      </c>
+      <c r="D113" t="s">
+        <v>12</v>
+      </c>
+      <c r="E113" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>56</v>
+      </c>
+      <c r="B114" t="s">
+        <v>57</v>
+      </c>
+      <c r="C114" t="s">
+        <v>58</v>
+      </c>
+      <c r="D114" t="s">
+        <v>10</v>
+      </c>
+      <c r="E114" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>56</v>
+      </c>
+      <c r="B115" t="s">
+        <v>57</v>
+      </c>
+      <c r="C115" t="s">
+        <v>58</v>
+      </c>
+      <c r="D115" t="s">
+        <v>10</v>
+      </c>
+      <c r="E115" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>56</v>
+      </c>
+      <c r="B116" t="s">
+        <v>57</v>
+      </c>
+      <c r="C116" t="s">
+        <v>58</v>
+      </c>
+      <c r="D116" t="s">
+        <v>12</v>
+      </c>
+      <c r="E116" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>56</v>
+      </c>
+      <c r="B117" t="s">
+        <v>57</v>
+      </c>
+      <c r="C117" t="s">
+        <v>58</v>
+      </c>
+      <c r="D117" t="s">
+        <v>12</v>
+      </c>
+      <c r="E117" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>56</v>
+      </c>
+      <c r="B118" t="s">
+        <v>57</v>
+      </c>
+      <c r="C118" t="s">
+        <v>58</v>
+      </c>
+      <c r="D118" t="s">
+        <v>12</v>
+      </c>
+      <c r="E118" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>56</v>
+      </c>
+      <c r="B119" t="s">
+        <v>57</v>
+      </c>
+      <c r="C119" t="s">
+        <v>58</v>
+      </c>
+      <c r="D119" t="s">
+        <v>12</v>
+      </c>
+      <c r="E119" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>56</v>
+      </c>
+      <c r="B120" t="s">
+        <v>57</v>
+      </c>
+      <c r="C120" t="s">
+        <v>58</v>
+      </c>
+      <c r="D120" t="s">
+        <v>12</v>
+      </c>
+      <c r="E120" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>56</v>
+      </c>
+      <c r="B121" t="s">
+        <v>57</v>
+      </c>
+      <c r="C121" t="s">
+        <v>58</v>
+      </c>
+      <c r="D121" t="s">
+        <v>10</v>
+      </c>
+      <c r="E121" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>56</v>
+      </c>
+      <c r="B122" t="s">
+        <v>57</v>
+      </c>
+      <c r="C122" t="s">
+        <v>58</v>
+      </c>
+      <c r="D122" t="s">
+        <v>10</v>
+      </c>
+      <c r="E122" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>56</v>
+      </c>
+      <c r="B123" t="s">
+        <v>57</v>
+      </c>
+      <c r="C123" t="s">
+        <v>58</v>
+      </c>
+      <c r="D123" t="s">
+        <v>12</v>
+      </c>
+      <c r="E123" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>56</v>
+      </c>
+      <c r="B124" t="s">
+        <v>57</v>
+      </c>
+      <c r="C124" t="s">
+        <v>58</v>
+      </c>
+      <c r="D124" t="s">
+        <v>12</v>
+      </c>
+      <c r="E124" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>56</v>
+      </c>
+      <c r="B125" t="s">
+        <v>57</v>
+      </c>
+      <c r="C125" t="s">
+        <v>58</v>
+      </c>
+      <c r="D125" t="s">
+        <v>12</v>
+      </c>
+      <c r="E125" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>56</v>
+      </c>
+      <c r="B126" t="s">
+        <v>57</v>
+      </c>
+      <c r="C126" t="s">
+        <v>58</v>
+      </c>
+      <c r="D126" t="s">
+        <v>12</v>
+      </c>
+      <c r="E126" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>56</v>
+      </c>
+      <c r="B127" t="s">
+        <v>57</v>
+      </c>
+      <c r="C127" t="s">
+        <v>58</v>
+      </c>
+      <c r="D127" t="s">
+        <v>12</v>
+      </c>
+      <c r="E127" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>56</v>
+      </c>
+      <c r="B128" t="s">
+        <v>57</v>
+      </c>
+      <c r="C128" t="s">
+        <v>58</v>
+      </c>
+      <c r="D128" t="s">
+        <v>10</v>
+      </c>
+      <c r="E128" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>56</v>
+      </c>
+      <c r="B129" t="s">
+        <v>57</v>
+      </c>
+      <c r="C129" t="s">
+        <v>58</v>
+      </c>
+      <c r="D129" t="s">
+        <v>10</v>
+      </c>
+      <c r="E129" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>56</v>
+      </c>
+      <c r="B130" t="s">
+        <v>57</v>
+      </c>
+      <c r="C130" t="s">
+        <v>58</v>
+      </c>
+      <c r="D130" t="s">
+        <v>12</v>
+      </c>
+      <c r="E130" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>56</v>
+      </c>
+      <c r="B131" t="s">
+        <v>57</v>
+      </c>
+      <c r="C131" t="s">
+        <v>58</v>
+      </c>
+      <c r="D131" t="s">
+        <v>12</v>
+      </c>
+      <c r="E131" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>59</v>
+      </c>
+      <c r="B132" t="s">
+        <v>60</v>
+      </c>
+      <c r="C132" t="s">
+        <v>61</v>
+      </c>
+      <c r="D132" t="s">
+        <v>10</v>
+      </c>
+      <c r="E132" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>59</v>
+      </c>
+      <c r="B133" t="s">
+        <v>60</v>
+      </c>
+      <c r="C133" t="s">
+        <v>61</v>
+      </c>
+      <c r="D133" t="s">
+        <v>12</v>
+      </c>
+      <c r="E133" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>59</v>
+      </c>
+      <c r="B134" t="s">
+        <v>60</v>
+      </c>
+      <c r="C134" t="s">
+        <v>61</v>
+      </c>
+      <c r="D134" t="s">
+        <v>12</v>
+      </c>
+      <c r="E134" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>59</v>
+      </c>
+      <c r="B135" t="s">
+        <v>60</v>
+      </c>
+      <c r="C135" t="s">
+        <v>61</v>
+      </c>
+      <c r="D135" t="s">
+        <v>12</v>
+      </c>
+      <c r="E135" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>59</v>
+      </c>
+      <c r="B136" t="s">
+        <v>60</v>
+      </c>
+      <c r="C136" t="s">
+        <v>61</v>
+      </c>
+      <c r="D136" t="s">
+        <v>12</v>
+      </c>
+      <c r="E136" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>59</v>
+      </c>
+      <c r="B137" t="s">
+        <v>60</v>
+      </c>
+      <c r="C137" t="s">
+        <v>61</v>
+      </c>
+      <c r="D137" t="s">
+        <v>12</v>
+      </c>
+      <c r="E137" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>59</v>
+      </c>
+      <c r="B138" t="s">
+        <v>60</v>
+      </c>
+      <c r="C138" t="s">
+        <v>61</v>
+      </c>
+      <c r="D138" t="s">
+        <v>10</v>
+      </c>
+      <c r="E138" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>59</v>
+      </c>
+      <c r="B139" t="s">
+        <v>60</v>
+      </c>
+      <c r="C139" t="s">
+        <v>61</v>
+      </c>
+      <c r="D139" t="s">
+        <v>10</v>
+      </c>
+      <c r="E139" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>59</v>
+      </c>
+      <c r="B140" t="s">
+        <v>60</v>
+      </c>
+      <c r="C140" t="s">
+        <v>61</v>
+      </c>
+      <c r="D140" t="s">
+        <v>12</v>
+      </c>
+      <c r="E140" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>59</v>
+      </c>
+      <c r="B141" t="s">
+        <v>60</v>
+      </c>
+      <c r="C141" t="s">
+        <v>61</v>
+      </c>
+      <c r="D141" t="s">
+        <v>12</v>
+      </c>
+      <c r="E141" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>59</v>
+      </c>
+      <c r="B142" t="s">
+        <v>60</v>
+      </c>
+      <c r="C142" t="s">
+        <v>61</v>
+      </c>
+      <c r="D142" t="s">
+        <v>12</v>
+      </c>
+      <c r="E142" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>59</v>
+      </c>
+      <c r="B143" t="s">
+        <v>60</v>
+      </c>
+      <c r="C143" t="s">
+        <v>61</v>
+      </c>
+      <c r="D143" t="s">
+        <v>12</v>
+      </c>
+      <c r="E143" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>59</v>
+      </c>
+      <c r="B144" t="s">
+        <v>60</v>
+      </c>
+      <c r="C144" t="s">
+        <v>61</v>
+      </c>
+      <c r="D144" t="s">
+        <v>12</v>
+      </c>
+      <c r="E144" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>59</v>
+      </c>
+      <c r="B145" t="s">
+        <v>60</v>
+      </c>
+      <c r="C145" t="s">
+        <v>61</v>
+      </c>
+      <c r="D145" t="s">
+        <v>10</v>
+      </c>
+      <c r="E145" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>59</v>
+      </c>
+      <c r="B146" t="s">
+        <v>60</v>
+      </c>
+      <c r="C146" t="s">
+        <v>61</v>
+      </c>
+      <c r="D146" t="s">
+        <v>10</v>
+      </c>
+      <c r="E146" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>59</v>
+      </c>
+      <c r="B147" t="s">
+        <v>60</v>
+      </c>
+      <c r="C147" t="s">
+        <v>61</v>
+      </c>
+      <c r="D147" t="s">
+        <v>12</v>
+      </c>
+      <c r="E147" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>59</v>
+      </c>
+      <c r="B148" t="s">
+        <v>60</v>
+      </c>
+      <c r="C148" t="s">
+        <v>61</v>
+      </c>
+      <c r="D148" t="s">
+        <v>12</v>
+      </c>
+      <c r="E148" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>59</v>
+      </c>
+      <c r="B149" t="s">
+        <v>60</v>
+      </c>
+      <c r="C149" t="s">
+        <v>61</v>
+      </c>
+      <c r="D149" t="s">
+        <v>12</v>
+      </c>
+      <c r="E149" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>59</v>
+      </c>
+      <c r="B150" t="s">
+        <v>60</v>
+      </c>
+      <c r="C150" t="s">
+        <v>61</v>
+      </c>
+      <c r="D150" t="s">
+        <v>12</v>
+      </c>
+      <c r="E150" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>59</v>
+      </c>
+      <c r="B151" t="s">
+        <v>60</v>
+      </c>
+      <c r="C151" t="s">
+        <v>61</v>
+      </c>
+      <c r="D151" t="s">
+        <v>12</v>
+      </c>
+      <c r="E151" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>59</v>
+      </c>
+      <c r="B152" t="s">
+        <v>60</v>
+      </c>
+      <c r="C152" t="s">
+        <v>61</v>
+      </c>
+      <c r="D152" t="s">
+        <v>10</v>
+      </c>
+      <c r="E152" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>59</v>
+      </c>
+      <c r="B153" t="s">
+        <v>60</v>
+      </c>
+      <c r="C153" t="s">
+        <v>61</v>
+      </c>
+      <c r="D153" t="s">
+        <v>10</v>
+      </c>
+      <c r="E153" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>59</v>
+      </c>
+      <c r="B154" t="s">
+        <v>60</v>
+      </c>
+      <c r="C154" t="s">
+        <v>61</v>
+      </c>
+      <c r="D154" t="s">
+        <v>12</v>
+      </c>
+      <c r="E154" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>59</v>
+      </c>
+      <c r="B155" t="s">
+        <v>60</v>
+      </c>
+      <c r="C155" t="s">
+        <v>61</v>
+      </c>
+      <c r="D155" t="s">
+        <v>12</v>
+      </c>
+      <c r="E155" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>59</v>
+      </c>
+      <c r="B156" t="s">
+        <v>60</v>
+      </c>
+      <c r="C156" t="s">
+        <v>61</v>
+      </c>
+      <c r="D156" t="s">
+        <v>12</v>
+      </c>
+      <c r="E156" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>59</v>
+      </c>
+      <c r="B157" t="s">
+        <v>60</v>
+      </c>
+      <c r="C157" t="s">
+        <v>61</v>
+      </c>
+      <c r="D157" t="s">
+        <v>12</v>
+      </c>
+      <c r="E157" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>59</v>
+      </c>
+      <c r="B158" t="s">
+        <v>60</v>
+      </c>
+      <c r="C158" t="s">
+        <v>61</v>
+      </c>
+      <c r="D158" t="s">
+        <v>12</v>
+      </c>
+      <c r="E158" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>59</v>
+      </c>
+      <c r="B159" t="s">
+        <v>60</v>
+      </c>
+      <c r="C159" t="s">
+        <v>61</v>
+      </c>
+      <c r="D159" t="s">
+        <v>10</v>
+      </c>
+      <c r="E159" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>59</v>
+      </c>
+      <c r="B160" t="s">
+        <v>60</v>
+      </c>
+      <c r="C160" t="s">
+        <v>61</v>
+      </c>
+      <c r="D160" t="s">
+        <v>10</v>
+      </c>
+      <c r="E160" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>59</v>
+      </c>
+      <c r="B161" t="s">
+        <v>60</v>
+      </c>
+      <c r="C161" t="s">
+        <v>61</v>
+      </c>
+      <c r="D161" t="s">
+        <v>12</v>
+      </c>
+      <c r="E161" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>59</v>
+      </c>
+      <c r="B162" t="s">
+        <v>60</v>
+      </c>
+      <c r="C162" t="s">
+        <v>61</v>
+      </c>
+      <c r="D162" t="s">
+        <v>12</v>
+      </c>
+      <c r="E162" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>62</v>
+      </c>
+      <c r="B163" t="s">
+        <v>63</v>
+      </c>
+      <c r="C163" t="s">
+        <v>64</v>
+      </c>
+      <c r="D163" t="s">
+        <v>10</v>
+      </c>
+      <c r="E163" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>62</v>
+      </c>
+      <c r="B164" t="s">
+        <v>63</v>
+      </c>
+      <c r="C164" t="s">
+        <v>64</v>
+      </c>
+      <c r="D164" t="s">
+        <v>12</v>
+      </c>
+      <c r="E164" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>62</v>
+      </c>
+      <c r="B165" t="s">
+        <v>63</v>
+      </c>
+      <c r="C165" t="s">
+        <v>64</v>
+      </c>
+      <c r="D165" t="s">
+        <v>12</v>
+      </c>
+      <c r="E165" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>62</v>
+      </c>
+      <c r="B166" t="s">
+        <v>63</v>
+      </c>
+      <c r="C166" t="s">
+        <v>64</v>
+      </c>
+      <c r="D166" t="s">
+        <v>12</v>
+      </c>
+      <c r="E166" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>62</v>
+      </c>
+      <c r="B167" t="s">
+        <v>63</v>
+      </c>
+      <c r="C167" t="s">
+        <v>64</v>
+      </c>
+      <c r="D167" t="s">
+        <v>12</v>
+      </c>
+      <c r="E167" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>62</v>
+      </c>
+      <c r="B168" t="s">
+        <v>63</v>
+      </c>
+      <c r="C168" t="s">
+        <v>64</v>
+      </c>
+      <c r="D168" t="s">
+        <v>12</v>
+      </c>
+      <c r="E168" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>62</v>
+      </c>
+      <c r="B169" t="s">
+        <v>63</v>
+      </c>
+      <c r="C169" t="s">
+        <v>64</v>
+      </c>
+      <c r="D169" t="s">
+        <v>10</v>
+      </c>
+      <c r="E169" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>62</v>
+      </c>
+      <c r="B170" t="s">
+        <v>63</v>
+      </c>
+      <c r="C170" t="s">
+        <v>64</v>
+      </c>
+      <c r="D170" t="s">
+        <v>10</v>
+      </c>
+      <c r="E170" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>62</v>
+      </c>
+      <c r="B171" t="s">
+        <v>63</v>
+      </c>
+      <c r="C171" t="s">
+        <v>64</v>
+      </c>
+      <c r="D171" t="s">
+        <v>12</v>
+      </c>
+      <c r="E171" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>62</v>
+      </c>
+      <c r="B172" t="s">
+        <v>63</v>
+      </c>
+      <c r="C172" t="s">
+        <v>64</v>
+      </c>
+      <c r="D172" t="s">
+        <v>12</v>
+      </c>
+      <c r="E172" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>62</v>
+      </c>
+      <c r="B173" t="s">
+        <v>63</v>
+      </c>
+      <c r="C173" t="s">
+        <v>64</v>
+      </c>
+      <c r="D173" t="s">
+        <v>12</v>
+      </c>
+      <c r="E173" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>62</v>
+      </c>
+      <c r="B174" t="s">
+        <v>63</v>
+      </c>
+      <c r="C174" t="s">
+        <v>64</v>
+      </c>
+      <c r="D174" t="s">
+        <v>12</v>
+      </c>
+      <c r="E174" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>62</v>
+      </c>
+      <c r="B175" t="s">
+        <v>63</v>
+      </c>
+      <c r="C175" t="s">
+        <v>64</v>
+      </c>
+      <c r="D175" t="s">
+        <v>12</v>
+      </c>
+      <c r="E175" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>62</v>
+      </c>
+      <c r="B176" t="s">
+        <v>63</v>
+      </c>
+      <c r="C176" t="s">
+        <v>64</v>
+      </c>
+      <c r="D176" t="s">
+        <v>10</v>
+      </c>
+      <c r="E176" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>62</v>
+      </c>
+      <c r="B177" t="s">
+        <v>63</v>
+      </c>
+      <c r="C177" t="s">
+        <v>64</v>
+      </c>
+      <c r="D177" t="s">
+        <v>10</v>
+      </c>
+      <c r="E177" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>62</v>
+      </c>
+      <c r="B178" t="s">
+        <v>63</v>
+      </c>
+      <c r="C178" t="s">
+        <v>64</v>
+      </c>
+      <c r="D178" t="s">
+        <v>12</v>
+      </c>
+      <c r="E178" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>62</v>
+      </c>
+      <c r="B179" t="s">
+        <v>63</v>
+      </c>
+      <c r="C179" t="s">
+        <v>64</v>
+      </c>
+      <c r="D179" t="s">
+        <v>12</v>
+      </c>
+      <c r="E179" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>62</v>
+      </c>
+      <c r="B180" t="s">
+        <v>63</v>
+      </c>
+      <c r="C180" t="s">
+        <v>64</v>
+      </c>
+      <c r="D180" t="s">
+        <v>12</v>
+      </c>
+      <c r="E180" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>62</v>
+      </c>
+      <c r="B181" t="s">
+        <v>63</v>
+      </c>
+      <c r="C181" t="s">
+        <v>64</v>
+      </c>
+      <c r="D181" t="s">
+        <v>12</v>
+      </c>
+      <c r="E181" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>62</v>
+      </c>
+      <c r="B182" t="s">
+        <v>63</v>
+      </c>
+      <c r="C182" t="s">
+        <v>64</v>
+      </c>
+      <c r="D182" t="s">
+        <v>12</v>
+      </c>
+      <c r="E182" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>62</v>
+      </c>
+      <c r="B183" t="s">
+        <v>63</v>
+      </c>
+      <c r="C183" t="s">
+        <v>64</v>
+      </c>
+      <c r="D183" t="s">
+        <v>10</v>
+      </c>
+      <c r="E183" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>62</v>
+      </c>
+      <c r="B184" t="s">
+        <v>63</v>
+      </c>
+      <c r="C184" t="s">
+        <v>64</v>
+      </c>
+      <c r="D184" t="s">
+        <v>10</v>
+      </c>
+      <c r="E184" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>62</v>
+      </c>
+      <c r="B185" t="s">
+        <v>63</v>
+      </c>
+      <c r="C185" t="s">
+        <v>64</v>
+      </c>
+      <c r="D185" t="s">
+        <v>12</v>
+      </c>
+      <c r="E185" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>62</v>
+      </c>
+      <c r="B186" t="s">
+        <v>63</v>
+      </c>
+      <c r="C186" t="s">
+        <v>64</v>
+      </c>
+      <c r="D186" t="s">
+        <v>12</v>
+      </c>
+      <c r="E186" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>62</v>
+      </c>
+      <c r="B187" t="s">
+        <v>63</v>
+      </c>
+      <c r="C187" t="s">
+        <v>64</v>
+      </c>
+      <c r="D187" t="s">
+        <v>12</v>
+      </c>
+      <c r="E187" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>62</v>
+      </c>
+      <c r="B188" t="s">
+        <v>63</v>
+      </c>
+      <c r="C188" t="s">
+        <v>64</v>
+      </c>
+      <c r="D188" t="s">
+        <v>12</v>
+      </c>
+      <c r="E188" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>62</v>
+      </c>
+      <c r="B189" t="s">
+        <v>63</v>
+      </c>
+      <c r="C189" t="s">
+        <v>64</v>
+      </c>
+      <c r="D189" t="s">
+        <v>12</v>
+      </c>
+      <c r="E189" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>62</v>
+      </c>
+      <c r="B190" t="s">
+        <v>63</v>
+      </c>
+      <c r="C190" t="s">
+        <v>64</v>
+      </c>
+      <c r="D190" t="s">
+        <v>10</v>
+      </c>
+      <c r="E190" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>62</v>
+      </c>
+      <c r="B191" t="s">
+        <v>63</v>
+      </c>
+      <c r="C191" t="s">
+        <v>64</v>
+      </c>
+      <c r="D191" t="s">
+        <v>10</v>
+      </c>
+      <c r="E191" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>62</v>
+      </c>
+      <c r="B192" t="s">
+        <v>63</v>
+      </c>
+      <c r="C192" t="s">
+        <v>64</v>
+      </c>
+      <c r="D192" t="s">
+        <v>12</v>
+      </c>
+      <c r="E192" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>62</v>
+      </c>
+      <c r="B193" t="s">
+        <v>63</v>
+      </c>
+      <c r="C193" t="s">
+        <v>64</v>
+      </c>
+      <c r="D193" t="s">
+        <v>12</v>
+      </c>
+      <c r="E193" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>65</v>
+      </c>
+      <c r="B194" t="s">
+        <v>66</v>
+      </c>
+      <c r="C194" t="s">
+        <v>67</v>
+      </c>
+      <c r="D194" t="s">
+        <v>10</v>
+      </c>
+      <c r="E194" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>65</v>
+      </c>
+      <c r="B195" t="s">
+        <v>66</v>
+      </c>
+      <c r="C195" t="s">
+        <v>67</v>
+      </c>
+      <c r="D195" t="s">
+        <v>12</v>
+      </c>
+      <c r="E195" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>65</v>
+      </c>
+      <c r="B196" t="s">
+        <v>66</v>
+      </c>
+      <c r="C196" t="s">
+        <v>67</v>
+      </c>
+      <c r="D196" t="s">
+        <v>12</v>
+      </c>
+      <c r="E196" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>65</v>
+      </c>
+      <c r="B197" t="s">
+        <v>66</v>
+      </c>
+      <c r="C197" t="s">
+        <v>67</v>
+      </c>
+      <c r="D197" t="s">
+        <v>12</v>
+      </c>
+      <c r="E197" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>65</v>
+      </c>
+      <c r="B198" t="s">
+        <v>66</v>
+      </c>
+      <c r="C198" t="s">
+        <v>67</v>
+      </c>
+      <c r="D198" t="s">
+        <v>12</v>
+      </c>
+      <c r="E198" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>65</v>
+      </c>
+      <c r="B199" t="s">
+        <v>66</v>
+      </c>
+      <c r="C199" t="s">
+        <v>67</v>
+      </c>
+      <c r="D199" t="s">
+        <v>12</v>
+      </c>
+      <c r="E199" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>65</v>
+      </c>
+      <c r="B200" t="s">
+        <v>66</v>
+      </c>
+      <c r="C200" t="s">
+        <v>67</v>
+      </c>
+      <c r="D200" t="s">
+        <v>10</v>
+      </c>
+      <c r="E200" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>65</v>
+      </c>
+      <c r="B201" t="s">
+        <v>66</v>
+      </c>
+      <c r="C201" t="s">
+        <v>67</v>
+      </c>
+      <c r="D201" t="s">
+        <v>10</v>
+      </c>
+      <c r="E201" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>65</v>
+      </c>
+      <c r="B202" t="s">
+        <v>66</v>
+      </c>
+      <c r="C202" t="s">
+        <v>67</v>
+      </c>
+      <c r="D202" t="s">
+        <v>12</v>
+      </c>
+      <c r="E202" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>65</v>
+      </c>
+      <c r="B203" t="s">
+        <v>66</v>
+      </c>
+      <c r="C203" t="s">
+        <v>67</v>
+      </c>
+      <c r="D203" t="s">
+        <v>12</v>
+      </c>
+      <c r="E203" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>65</v>
+      </c>
+      <c r="B204" t="s">
+        <v>66</v>
+      </c>
+      <c r="C204" t="s">
+        <v>67</v>
+      </c>
+      <c r="D204" t="s">
+        <v>12</v>
+      </c>
+      <c r="E204" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>65</v>
+      </c>
+      <c r="B205" t="s">
+        <v>66</v>
+      </c>
+      <c r="C205" t="s">
+        <v>67</v>
+      </c>
+      <c r="D205" t="s">
+        <v>12</v>
+      </c>
+      <c r="E205" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>65</v>
+      </c>
+      <c r="B206" t="s">
+        <v>66</v>
+      </c>
+      <c r="C206" t="s">
+        <v>67</v>
+      </c>
+      <c r="D206" t="s">
+        <v>12</v>
+      </c>
+      <c r="E206" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>65</v>
+      </c>
+      <c r="B207" t="s">
+        <v>66</v>
+      </c>
+      <c r="C207" t="s">
+        <v>67</v>
+      </c>
+      <c r="D207" t="s">
+        <v>10</v>
+      </c>
+      <c r="E207" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>65</v>
+      </c>
+      <c r="B208" t="s">
+        <v>66</v>
+      </c>
+      <c r="C208" t="s">
+        <v>67</v>
+      </c>
+      <c r="D208" t="s">
+        <v>10</v>
+      </c>
+      <c r="E208" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>65</v>
+      </c>
+      <c r="B209" t="s">
+        <v>66</v>
+      </c>
+      <c r="C209" t="s">
+        <v>67</v>
+      </c>
+      <c r="D209" t="s">
+        <v>12</v>
+      </c>
+      <c r="E209" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>65</v>
+      </c>
+      <c r="B210" t="s">
+        <v>66</v>
+      </c>
+      <c r="C210" t="s">
+        <v>67</v>
+      </c>
+      <c r="D210" t="s">
+        <v>12</v>
+      </c>
+      <c r="E210" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>65</v>
+      </c>
+      <c r="B211" t="s">
+        <v>66</v>
+      </c>
+      <c r="C211" t="s">
+        <v>67</v>
+      </c>
+      <c r="D211" t="s">
+        <v>12</v>
+      </c>
+      <c r="E211" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>65</v>
+      </c>
+      <c r="B212" t="s">
+        <v>66</v>
+      </c>
+      <c r="C212" t="s">
+        <v>67</v>
+      </c>
+      <c r="D212" t="s">
+        <v>12</v>
+      </c>
+      <c r="E212" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>65</v>
+      </c>
+      <c r="B213" t="s">
+        <v>66</v>
+      </c>
+      <c r="C213" t="s">
+        <v>67</v>
+      </c>
+      <c r="D213" t="s">
+        <v>12</v>
+      </c>
+      <c r="E213" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>65</v>
+      </c>
+      <c r="B214" t="s">
+        <v>66</v>
+      </c>
+      <c r="C214" t="s">
+        <v>67</v>
+      </c>
+      <c r="D214" t="s">
+        <v>10</v>
+      </c>
+      <c r="E214" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>65</v>
+      </c>
+      <c r="B215" t="s">
+        <v>66</v>
+      </c>
+      <c r="C215" t="s">
+        <v>67</v>
+      </c>
+      <c r="D215" t="s">
+        <v>10</v>
+      </c>
+      <c r="E215" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>65</v>
+      </c>
+      <c r="B216" t="s">
+        <v>66</v>
+      </c>
+      <c r="C216" t="s">
+        <v>67</v>
+      </c>
+      <c r="D216" t="s">
+        <v>12</v>
+      </c>
+      <c r="E216" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>65</v>
+      </c>
+      <c r="B217" t="s">
+        <v>66</v>
+      </c>
+      <c r="C217" t="s">
+        <v>67</v>
+      </c>
+      <c r="D217" t="s">
+        <v>12</v>
+      </c>
+      <c r="E217" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>65</v>
+      </c>
+      <c r="B218" t="s">
+        <v>66</v>
+      </c>
+      <c r="C218" t="s">
+        <v>67</v>
+      </c>
+      <c r="D218" t="s">
+        <v>12</v>
+      </c>
+      <c r="E218" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>65</v>
+      </c>
+      <c r="B219" t="s">
+        <v>66</v>
+      </c>
+      <c r="C219" t="s">
+        <v>67</v>
+      </c>
+      <c r="D219" t="s">
+        <v>12</v>
+      </c>
+      <c r="E219" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>65</v>
+      </c>
+      <c r="B220" t="s">
+        <v>66</v>
+      </c>
+      <c r="C220" t="s">
+        <v>67</v>
+      </c>
+      <c r="D220" t="s">
+        <v>12</v>
+      </c>
+      <c r="E220" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>65</v>
+      </c>
+      <c r="B221" t="s">
+        <v>66</v>
+      </c>
+      <c r="C221" t="s">
+        <v>67</v>
+      </c>
+      <c r="D221" t="s">
+        <v>10</v>
+      </c>
+      <c r="E221" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>65</v>
+      </c>
+      <c r="B222" t="s">
+        <v>66</v>
+      </c>
+      <c r="C222" t="s">
+        <v>67</v>
+      </c>
+      <c r="D222" t="s">
+        <v>10</v>
+      </c>
+      <c r="E222" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>65</v>
+      </c>
+      <c r="B223" t="s">
+        <v>66</v>
+      </c>
+      <c r="C223" t="s">
+        <v>67</v>
+      </c>
+      <c r="D223" t="s">
+        <v>12</v>
+      </c>
+      <c r="E223" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>65</v>
+      </c>
+      <c r="B224" t="s">
+        <v>66</v>
+      </c>
+      <c r="C224" t="s">
+        <v>67</v>
+      </c>
+      <c r="D224" t="s">
+        <v>12</v>
+      </c>
+      <c r="E224" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>68</v>
+      </c>
+      <c r="B225" t="s">
+        <v>69</v>
+      </c>
+      <c r="C225" t="s">
+        <v>70</v>
+      </c>
+      <c r="D225" t="s">
+        <v>10</v>
+      </c>
+      <c r="E225" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>68</v>
+      </c>
+      <c r="B226" t="s">
+        <v>69</v>
+      </c>
+      <c r="C226" t="s">
+        <v>70</v>
+      </c>
+      <c r="D226" t="s">
+        <v>12</v>
+      </c>
+      <c r="E226" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>68</v>
+      </c>
+      <c r="B227" t="s">
+        <v>69</v>
+      </c>
+      <c r="C227" t="s">
+        <v>70</v>
+      </c>
+      <c r="D227" t="s">
+        <v>12</v>
+      </c>
+      <c r="E227" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>68</v>
+      </c>
+      <c r="B228" t="s">
+        <v>69</v>
+      </c>
+      <c r="C228" t="s">
+        <v>70</v>
+      </c>
+      <c r="D228" t="s">
+        <v>12</v>
+      </c>
+      <c r="E228" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>68</v>
+      </c>
+      <c r="B229" t="s">
+        <v>69</v>
+      </c>
+      <c r="C229" t="s">
+        <v>70</v>
+      </c>
+      <c r="D229" t="s">
+        <v>12</v>
+      </c>
+      <c r="E229" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>68</v>
+      </c>
+      <c r="B230" t="s">
+        <v>69</v>
+      </c>
+      <c r="C230" t="s">
+        <v>70</v>
+      </c>
+      <c r="D230" t="s">
+        <v>12</v>
+      </c>
+      <c r="E230" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>68</v>
+      </c>
+      <c r="B231" t="s">
+        <v>69</v>
+      </c>
+      <c r="C231" t="s">
+        <v>70</v>
+      </c>
+      <c r="D231" t="s">
+        <v>10</v>
+      </c>
+      <c r="E231" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>68</v>
+      </c>
+      <c r="B232" t="s">
+        <v>69</v>
+      </c>
+      <c r="C232" t="s">
+        <v>70</v>
+      </c>
+      <c r="D232" t="s">
+        <v>10</v>
+      </c>
+      <c r="E232" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>68</v>
+      </c>
+      <c r="B233" t="s">
+        <v>69</v>
+      </c>
+      <c r="C233" t="s">
+        <v>70</v>
+      </c>
+      <c r="D233" t="s">
+        <v>12</v>
+      </c>
+      <c r="E233" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>68</v>
+      </c>
+      <c r="B234" t="s">
+        <v>69</v>
+      </c>
+      <c r="C234" t="s">
+        <v>70</v>
+      </c>
+      <c r="D234" t="s">
+        <v>12</v>
+      </c>
+      <c r="E234" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>68</v>
+      </c>
+      <c r="B235" t="s">
+        <v>69</v>
+      </c>
+      <c r="C235" t="s">
+        <v>70</v>
+      </c>
+      <c r="D235" t="s">
+        <v>12</v>
+      </c>
+      <c r="E235" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>68</v>
+      </c>
+      <c r="B236" t="s">
+        <v>69</v>
+      </c>
+      <c r="C236" t="s">
+        <v>70</v>
+      </c>
+      <c r="D236" t="s">
+        <v>12</v>
+      </c>
+      <c r="E236" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>68</v>
+      </c>
+      <c r="B237" t="s">
+        <v>69</v>
+      </c>
+      <c r="C237" t="s">
+        <v>70</v>
+      </c>
+      <c r="D237" t="s">
+        <v>12</v>
+      </c>
+      <c r="E237" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>68</v>
+      </c>
+      <c r="B238" t="s">
+        <v>69</v>
+      </c>
+      <c r="C238" t="s">
+        <v>70</v>
+      </c>
+      <c r="D238" t="s">
+        <v>10</v>
+      </c>
+      <c r="E238" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>68</v>
+      </c>
+      <c r="B239" t="s">
+        <v>69</v>
+      </c>
+      <c r="C239" t="s">
+        <v>70</v>
+      </c>
+      <c r="D239" t="s">
+        <v>10</v>
+      </c>
+      <c r="E239" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>68</v>
+      </c>
+      <c r="B240" t="s">
+        <v>69</v>
+      </c>
+      <c r="C240" t="s">
+        <v>70</v>
+      </c>
+      <c r="D240" t="s">
+        <v>12</v>
+      </c>
+      <c r="E240" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>68</v>
+      </c>
+      <c r="B241" t="s">
+        <v>69</v>
+      </c>
+      <c r="C241" t="s">
+        <v>70</v>
+      </c>
+      <c r="D241" t="s">
+        <v>12</v>
+      </c>
+      <c r="E241" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>68</v>
+      </c>
+      <c r="B242" t="s">
+        <v>69</v>
+      </c>
+      <c r="C242" t="s">
+        <v>70</v>
+      </c>
+      <c r="D242" t="s">
+        <v>12</v>
+      </c>
+      <c r="E242" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>68</v>
+      </c>
+      <c r="B243" t="s">
+        <v>69</v>
+      </c>
+      <c r="C243" t="s">
+        <v>70</v>
+      </c>
+      <c r="D243" t="s">
+        <v>12</v>
+      </c>
+      <c r="E243" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>68</v>
+      </c>
+      <c r="B244" t="s">
+        <v>69</v>
+      </c>
+      <c r="C244" t="s">
+        <v>70</v>
+      </c>
+      <c r="D244" t="s">
+        <v>12</v>
+      </c>
+      <c r="E244" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>68</v>
+      </c>
+      <c r="B245" t="s">
+        <v>69</v>
+      </c>
+      <c r="C245" t="s">
+        <v>70</v>
+      </c>
+      <c r="D245" t="s">
+        <v>10</v>
+      </c>
+      <c r="E245" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>68</v>
+      </c>
+      <c r="B246" t="s">
+        <v>69</v>
+      </c>
+      <c r="C246" t="s">
+        <v>70</v>
+      </c>
+      <c r="D246" t="s">
+        <v>10</v>
+      </c>
+      <c r="E246" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>68</v>
+      </c>
+      <c r="B247" t="s">
+        <v>69</v>
+      </c>
+      <c r="C247" t="s">
+        <v>70</v>
+      </c>
+      <c r="D247" t="s">
+        <v>12</v>
+      </c>
+      <c r="E247" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>68</v>
+      </c>
+      <c r="B248" t="s">
+        <v>69</v>
+      </c>
+      <c r="C248" t="s">
+        <v>70</v>
+      </c>
+      <c r="D248" t="s">
+        <v>12</v>
+      </c>
+      <c r="E248" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>68</v>
+      </c>
+      <c r="B249" t="s">
+        <v>69</v>
+      </c>
+      <c r="C249" t="s">
+        <v>70</v>
+      </c>
+      <c r="D249" t="s">
+        <v>12</v>
+      </c>
+      <c r="E249" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>68</v>
+      </c>
+      <c r="B250" t="s">
+        <v>69</v>
+      </c>
+      <c r="C250" t="s">
+        <v>70</v>
+      </c>
+      <c r="D250" t="s">
+        <v>12</v>
+      </c>
+      <c r="E250" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>68</v>
+      </c>
+      <c r="B251" t="s">
+        <v>69</v>
+      </c>
+      <c r="C251" t="s">
+        <v>70</v>
+      </c>
+      <c r="D251" t="s">
+        <v>12</v>
+      </c>
+      <c r="E251" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>68</v>
+      </c>
+      <c r="B252" t="s">
+        <v>69</v>
+      </c>
+      <c r="C252" t="s">
+        <v>70</v>
+      </c>
+      <c r="D252" t="s">
+        <v>10</v>
+      </c>
+      <c r="E252" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>68</v>
+      </c>
+      <c r="B253" t="s">
+        <v>69</v>
+      </c>
+      <c r="C253" t="s">
+        <v>70</v>
+      </c>
+      <c r="D253" t="s">
+        <v>10</v>
+      </c>
+      <c r="E253" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>68</v>
+      </c>
+      <c r="B254" t="s">
+        <v>69</v>
+      </c>
+      <c r="C254" t="s">
+        <v>70</v>
+      </c>
+      <c r="D254" t="s">
+        <v>12</v>
+      </c>
+      <c r="E254" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>68</v>
+      </c>
+      <c r="B255" t="s">
+        <v>69</v>
+      </c>
+      <c r="C255" t="s">
+        <v>70</v>
+      </c>
+      <c r="D255" t="s">
+        <v>12</v>
+      </c>
+      <c r="E255" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>71</v>
+      </c>
+      <c r="B256" t="s">
+        <v>72</v>
+      </c>
+      <c r="C256" t="s">
+        <v>73</v>
+      </c>
+      <c r="D256" t="s">
+        <v>10</v>
+      </c>
+      <c r="E256" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>71</v>
+      </c>
+      <c r="B257" t="s">
+        <v>72</v>
+      </c>
+      <c r="C257" t="s">
+        <v>73</v>
+      </c>
+      <c r="D257" t="s">
+        <v>12</v>
+      </c>
+      <c r="E257" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>71</v>
+      </c>
+      <c r="B258" t="s">
+        <v>72</v>
+      </c>
+      <c r="C258" t="s">
+        <v>73</v>
+      </c>
+      <c r="D258" t="s">
+        <v>12</v>
+      </c>
+      <c r="E258" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>71</v>
+      </c>
+      <c r="B259" t="s">
+        <v>72</v>
+      </c>
+      <c r="C259" t="s">
+        <v>73</v>
+      </c>
+      <c r="D259" t="s">
+        <v>12</v>
+      </c>
+      <c r="E259" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>71</v>
+      </c>
+      <c r="B260" t="s">
+        <v>72</v>
+      </c>
+      <c r="C260" t="s">
+        <v>73</v>
+      </c>
+      <c r="D260" t="s">
+        <v>12</v>
+      </c>
+      <c r="E260" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>71</v>
+      </c>
+      <c r="B261" t="s">
+        <v>72</v>
+      </c>
+      <c r="C261" t="s">
+        <v>73</v>
+      </c>
+      <c r="D261" t="s">
+        <v>12</v>
+      </c>
+      <c r="E261" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>71</v>
+      </c>
+      <c r="B262" t="s">
+        <v>72</v>
+      </c>
+      <c r="C262" t="s">
+        <v>73</v>
+      </c>
+      <c r="D262" t="s">
+        <v>10</v>
+      </c>
+      <c r="E262" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>71</v>
+      </c>
+      <c r="B263" t="s">
+        <v>72</v>
+      </c>
+      <c r="C263" t="s">
+        <v>73</v>
+      </c>
+      <c r="D263" t="s">
+        <v>10</v>
+      </c>
+      <c r="E263" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>71</v>
+      </c>
+      <c r="B264" t="s">
+        <v>72</v>
+      </c>
+      <c r="C264" t="s">
+        <v>73</v>
+      </c>
+      <c r="D264" t="s">
+        <v>12</v>
+      </c>
+      <c r="E264" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>71</v>
+      </c>
+      <c r="B265" t="s">
+        <v>72</v>
+      </c>
+      <c r="C265" t="s">
+        <v>73</v>
+      </c>
+      <c r="D265" t="s">
+        <v>12</v>
+      </c>
+      <c r="E265" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>71</v>
+      </c>
+      <c r="B266" t="s">
+        <v>72</v>
+      </c>
+      <c r="C266" t="s">
+        <v>73</v>
+      </c>
+      <c r="D266" t="s">
+        <v>12</v>
+      </c>
+      <c r="E266" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>71</v>
+      </c>
+      <c r="B267" t="s">
+        <v>72</v>
+      </c>
+      <c r="C267" t="s">
+        <v>73</v>
+      </c>
+      <c r="D267" t="s">
+        <v>12</v>
+      </c>
+      <c r="E267" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>71</v>
+      </c>
+      <c r="B268" t="s">
+        <v>72</v>
+      </c>
+      <c r="C268" t="s">
+        <v>73</v>
+      </c>
+      <c r="D268" t="s">
+        <v>12</v>
+      </c>
+      <c r="E268" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>71</v>
+      </c>
+      <c r="B269" t="s">
+        <v>72</v>
+      </c>
+      <c r="C269" t="s">
+        <v>73</v>
+      </c>
+      <c r="D269" t="s">
+        <v>10</v>
+      </c>
+      <c r="E269" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>71</v>
+      </c>
+      <c r="B270" t="s">
+        <v>72</v>
+      </c>
+      <c r="C270" t="s">
+        <v>73</v>
+      </c>
+      <c r="D270" t="s">
+        <v>10</v>
+      </c>
+      <c r="E270" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>71</v>
+      </c>
+      <c r="B271" t="s">
+        <v>72</v>
+      </c>
+      <c r="C271" t="s">
+        <v>73</v>
+      </c>
+      <c r="D271" t="s">
+        <v>12</v>
+      </c>
+      <c r="E271" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>71</v>
+      </c>
+      <c r="B272" t="s">
+        <v>72</v>
+      </c>
+      <c r="C272" t="s">
+        <v>73</v>
+      </c>
+      <c r="D272" t="s">
+        <v>12</v>
+      </c>
+      <c r="E272" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>71</v>
+      </c>
+      <c r="B273" t="s">
+        <v>72</v>
+      </c>
+      <c r="C273" t="s">
+        <v>73</v>
+      </c>
+      <c r="D273" t="s">
+        <v>12</v>
+      </c>
+      <c r="E273" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>71</v>
+      </c>
+      <c r="B274" t="s">
+        <v>72</v>
+      </c>
+      <c r="C274" t="s">
+        <v>73</v>
+      </c>
+      <c r="D274" t="s">
+        <v>12</v>
+      </c>
+      <c r="E274" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>71</v>
+      </c>
+      <c r="B275" t="s">
+        <v>72</v>
+      </c>
+      <c r="C275" t="s">
+        <v>73</v>
+      </c>
+      <c r="D275" t="s">
+        <v>12</v>
+      </c>
+      <c r="E275" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>71</v>
+      </c>
+      <c r="B276" t="s">
+        <v>72</v>
+      </c>
+      <c r="C276" t="s">
+        <v>73</v>
+      </c>
+      <c r="D276" t="s">
+        <v>10</v>
+      </c>
+      <c r="E276" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>71</v>
+      </c>
+      <c r="B277" t="s">
+        <v>72</v>
+      </c>
+      <c r="C277" t="s">
+        <v>73</v>
+      </c>
+      <c r="D277" t="s">
+        <v>10</v>
+      </c>
+      <c r="E277" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>71</v>
+      </c>
+      <c r="B278" t="s">
+        <v>72</v>
+      </c>
+      <c r="C278" t="s">
+        <v>73</v>
+      </c>
+      <c r="D278" t="s">
+        <v>12</v>
+      </c>
+      <c r="E278" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>71</v>
+      </c>
+      <c r="B279" t="s">
+        <v>72</v>
+      </c>
+      <c r="C279" t="s">
+        <v>73</v>
+      </c>
+      <c r="D279" t="s">
+        <v>12</v>
+      </c>
+      <c r="E279" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>71</v>
+      </c>
+      <c r="B280" t="s">
+        <v>72</v>
+      </c>
+      <c r="C280" t="s">
+        <v>73</v>
+      </c>
+      <c r="D280" t="s">
+        <v>12</v>
+      </c>
+      <c r="E280" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>71</v>
+      </c>
+      <c r="B281" t="s">
+        <v>72</v>
+      </c>
+      <c r="C281" t="s">
+        <v>73</v>
+      </c>
+      <c r="D281" t="s">
+        <v>12</v>
+      </c>
+      <c r="E281" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>71</v>
+      </c>
+      <c r="B282" t="s">
+        <v>72</v>
+      </c>
+      <c r="C282" t="s">
+        <v>73</v>
+      </c>
+      <c r="D282" t="s">
+        <v>12</v>
+      </c>
+      <c r="E282" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>71</v>
+      </c>
+      <c r="B283" t="s">
+        <v>72</v>
+      </c>
+      <c r="C283" t="s">
+        <v>73</v>
+      </c>
+      <c r="D283" t="s">
+        <v>10</v>
+      </c>
+      <c r="E283" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>71</v>
+      </c>
+      <c r="B284" t="s">
+        <v>72</v>
+      </c>
+      <c r="C284" t="s">
+        <v>73</v>
+      </c>
+      <c r="D284" t="s">
+        <v>10</v>
+      </c>
+      <c r="E284" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>71</v>
+      </c>
+      <c r="B285" t="s">
+        <v>72</v>
+      </c>
+      <c r="C285" t="s">
+        <v>73</v>
+      </c>
+      <c r="D285" t="s">
+        <v>12</v>
+      </c>
+      <c r="E285" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>71</v>
+      </c>
+      <c r="B286" t="s">
+        <v>72</v>
+      </c>
+      <c r="C286" t="s">
+        <v>73</v>
+      </c>
+      <c r="D286" t="s">
+        <v>12</v>
+      </c>
+      <c r="E286" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>74</v>
+      </c>
+      <c r="B287" t="s">
+        <v>75</v>
+      </c>
+      <c r="C287" t="s">
+        <v>76</v>
+      </c>
+      <c r="D287" t="s">
+        <v>10</v>
+      </c>
+      <c r="E287" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>74</v>
+      </c>
+      <c r="B288" t="s">
+        <v>75</v>
+      </c>
+      <c r="C288" t="s">
+        <v>76</v>
+      </c>
+      <c r="D288" t="s">
+        <v>12</v>
+      </c>
+      <c r="E288" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>74</v>
+      </c>
+      <c r="B289" t="s">
+        <v>75</v>
+      </c>
+      <c r="C289" t="s">
+        <v>76</v>
+      </c>
+      <c r="D289" t="s">
+        <v>12</v>
+      </c>
+      <c r="E289" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>74</v>
+      </c>
+      <c r="B290" t="s">
+        <v>75</v>
+      </c>
+      <c r="C290" t="s">
+        <v>76</v>
+      </c>
+      <c r="D290" t="s">
+        <v>12</v>
+      </c>
+      <c r="E290" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>74</v>
+      </c>
+      <c r="B291" t="s">
+        <v>75</v>
+      </c>
+      <c r="C291" t="s">
+        <v>76</v>
+      </c>
+      <c r="D291" t="s">
+        <v>12</v>
+      </c>
+      <c r="E291" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>74</v>
+      </c>
+      <c r="B292" t="s">
+        <v>75</v>
+      </c>
+      <c r="C292" t="s">
+        <v>76</v>
+      </c>
+      <c r="D292" t="s">
+        <v>12</v>
+      </c>
+      <c r="E292" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>74</v>
+      </c>
+      <c r="B293" t="s">
+        <v>75</v>
+      </c>
+      <c r="C293" t="s">
+        <v>76</v>
+      </c>
+      <c r="D293" t="s">
+        <v>10</v>
+      </c>
+      <c r="E293" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>74</v>
+      </c>
+      <c r="B294" t="s">
+        <v>75</v>
+      </c>
+      <c r="C294" t="s">
+        <v>76</v>
+      </c>
+      <c r="D294" t="s">
+        <v>10</v>
+      </c>
+      <c r="E294" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>74</v>
+      </c>
+      <c r="B295" t="s">
+        <v>75</v>
+      </c>
+      <c r="C295" t="s">
+        <v>76</v>
+      </c>
+      <c r="D295" t="s">
+        <v>12</v>
+      </c>
+      <c r="E295" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>74</v>
+      </c>
+      <c r="B296" t="s">
+        <v>75</v>
+      </c>
+      <c r="C296" t="s">
+        <v>76</v>
+      </c>
+      <c r="D296" t="s">
+        <v>12</v>
+      </c>
+      <c r="E296" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>74</v>
+      </c>
+      <c r="B297" t="s">
+        <v>75</v>
+      </c>
+      <c r="C297" t="s">
+        <v>76</v>
+      </c>
+      <c r="D297" t="s">
+        <v>12</v>
+      </c>
+      <c r="E297" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>74</v>
+      </c>
+      <c r="B298" t="s">
+        <v>75</v>
+      </c>
+      <c r="C298" t="s">
+        <v>76</v>
+      </c>
+      <c r="D298" t="s">
+        <v>12</v>
+      </c>
+      <c r="E298" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>74</v>
+      </c>
+      <c r="B299" t="s">
+        <v>75</v>
+      </c>
+      <c r="C299" t="s">
+        <v>76</v>
+      </c>
+      <c r="D299" t="s">
+        <v>12</v>
+      </c>
+      <c r="E299" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>74</v>
+      </c>
+      <c r="B300" t="s">
+        <v>75</v>
+      </c>
+      <c r="C300" t="s">
+        <v>76</v>
+      </c>
+      <c r="D300" t="s">
+        <v>10</v>
+      </c>
+      <c r="E300" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>74</v>
+      </c>
+      <c r="B301" t="s">
+        <v>75</v>
+      </c>
+      <c r="C301" t="s">
+        <v>76</v>
+      </c>
+      <c r="D301" t="s">
+        <v>10</v>
+      </c>
+      <c r="E301" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>74</v>
+      </c>
+      <c r="B302" t="s">
+        <v>75</v>
+      </c>
+      <c r="C302" t="s">
+        <v>76</v>
+      </c>
+      <c r="D302" t="s">
+        <v>12</v>
+      </c>
+      <c r="E302" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>74</v>
+      </c>
+      <c r="B303" t="s">
+        <v>75</v>
+      </c>
+      <c r="C303" t="s">
+        <v>76</v>
+      </c>
+      <c r="D303" t="s">
+        <v>12</v>
+      </c>
+      <c r="E303" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>74</v>
+      </c>
+      <c r="B304" t="s">
+        <v>75</v>
+      </c>
+      <c r="C304" t="s">
+        <v>76</v>
+      </c>
+      <c r="D304" t="s">
+        <v>12</v>
+      </c>
+      <c r="E304" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>74</v>
+      </c>
+      <c r="B305" t="s">
+        <v>75</v>
+      </c>
+      <c r="C305" t="s">
+        <v>76</v>
+      </c>
+      <c r="D305" t="s">
+        <v>12</v>
+      </c>
+      <c r="E305" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>74</v>
+      </c>
+      <c r="B306" t="s">
+        <v>75</v>
+      </c>
+      <c r="C306" t="s">
+        <v>76</v>
+      </c>
+      <c r="D306" t="s">
+        <v>12</v>
+      </c>
+      <c r="E306" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>74</v>
+      </c>
+      <c r="B307" t="s">
+        <v>75</v>
+      </c>
+      <c r="C307" t="s">
+        <v>76</v>
+      </c>
+      <c r="D307" t="s">
+        <v>10</v>
+      </c>
+      <c r="E307" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>74</v>
+      </c>
+      <c r="B308" t="s">
+        <v>75</v>
+      </c>
+      <c r="C308" t="s">
+        <v>76</v>
+      </c>
+      <c r="D308" t="s">
+        <v>10</v>
+      </c>
+      <c r="E308" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>74</v>
+      </c>
+      <c r="B309" t="s">
+        <v>75</v>
+      </c>
+      <c r="C309" t="s">
+        <v>76</v>
+      </c>
+      <c r="D309" t="s">
+        <v>12</v>
+      </c>
+      <c r="E309" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>74</v>
+      </c>
+      <c r="B310" t="s">
+        <v>75</v>
+      </c>
+      <c r="C310" t="s">
+        <v>76</v>
+      </c>
+      <c r="D310" t="s">
+        <v>12</v>
+      </c>
+      <c r="E310" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>74</v>
+      </c>
+      <c r="B311" t="s">
+        <v>75</v>
+      </c>
+      <c r="C311" t="s">
+        <v>76</v>
+      </c>
+      <c r="D311" t="s">
+        <v>12</v>
+      </c>
+      <c r="E311" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>74</v>
+      </c>
+      <c r="B312" t="s">
+        <v>75</v>
+      </c>
+      <c r="C312" t="s">
+        <v>76</v>
+      </c>
+      <c r="D312" t="s">
+        <v>12</v>
+      </c>
+      <c r="E312" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>74</v>
+      </c>
+      <c r="B313" t="s">
+        <v>75</v>
+      </c>
+      <c r="C313" t="s">
+        <v>76</v>
+      </c>
+      <c r="D313" t="s">
+        <v>12</v>
+      </c>
+      <c r="E313" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>74</v>
+      </c>
+      <c r="B314" t="s">
+        <v>75</v>
+      </c>
+      <c r="C314" t="s">
+        <v>76</v>
+      </c>
+      <c r="D314" t="s">
+        <v>10</v>
+      </c>
+      <c r="E314" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>74</v>
+      </c>
+      <c r="B315" t="s">
+        <v>75</v>
+      </c>
+      <c r="C315" t="s">
+        <v>76</v>
+      </c>
+      <c r="D315" t="s">
+        <v>10</v>
+      </c>
+      <c r="E315" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>74</v>
+      </c>
+      <c r="B316" t="s">
+        <v>75</v>
+      </c>
+      <c r="C316" t="s">
+        <v>76</v>
+      </c>
+      <c r="D316" t="s">
+        <v>12</v>
+      </c>
+      <c r="E316" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>74</v>
+      </c>
+      <c r="B317" t="s">
+        <v>75</v>
+      </c>
+      <c r="C317" t="s">
+        <v>76</v>
+      </c>
+      <c r="D317" t="s">
+        <v>12</v>
+      </c>
+      <c r="E317" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>77</v>
+      </c>
+      <c r="B318" t="s">
+        <v>78</v>
+      </c>
+      <c r="C318" t="s">
+        <v>79</v>
+      </c>
+      <c r="D318" t="s">
+        <v>10</v>
+      </c>
+      <c r="E318" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>77</v>
+      </c>
+      <c r="B319" t="s">
+        <v>78</v>
+      </c>
+      <c r="C319" t="s">
+        <v>79</v>
+      </c>
+      <c r="D319" t="s">
+        <v>12</v>
+      </c>
+      <c r="E319" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>77</v>
+      </c>
+      <c r="B320" t="s">
+        <v>78</v>
+      </c>
+      <c r="C320" t="s">
+        <v>79</v>
+      </c>
+      <c r="D320" t="s">
+        <v>12</v>
+      </c>
+      <c r="E320" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>77</v>
+      </c>
+      <c r="B321" t="s">
+        <v>78</v>
+      </c>
+      <c r="C321" t="s">
+        <v>79</v>
+      </c>
+      <c r="D321" t="s">
+        <v>12</v>
+      </c>
+      <c r="E321" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>77</v>
+      </c>
+      <c r="B322" t="s">
+        <v>78</v>
+      </c>
+      <c r="C322" t="s">
+        <v>79</v>
+      </c>
+      <c r="D322" t="s">
+        <v>12</v>
+      </c>
+      <c r="E322" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>77</v>
+      </c>
+      <c r="B323" t="s">
+        <v>78</v>
+      </c>
+      <c r="C323" t="s">
+        <v>79</v>
+      </c>
+      <c r="D323" t="s">
+        <v>12</v>
+      </c>
+      <c r="E323" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>77</v>
+      </c>
+      <c r="B324" t="s">
+        <v>78</v>
+      </c>
+      <c r="C324" t="s">
+        <v>79</v>
+      </c>
+      <c r="D324" t="s">
+        <v>10</v>
+      </c>
+      <c r="E324" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>77</v>
+      </c>
+      <c r="B325" t="s">
+        <v>78</v>
+      </c>
+      <c r="C325" t="s">
+        <v>79</v>
+      </c>
+      <c r="D325" t="s">
+        <v>10</v>
+      </c>
+      <c r="E325" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>77</v>
+      </c>
+      <c r="B326" t="s">
+        <v>78</v>
+      </c>
+      <c r="C326" t="s">
+        <v>79</v>
+      </c>
+      <c r="D326" t="s">
+        <v>12</v>
+      </c>
+      <c r="E326" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>77</v>
+      </c>
+      <c r="B327" t="s">
+        <v>78</v>
+      </c>
+      <c r="C327" t="s">
+        <v>79</v>
+      </c>
+      <c r="D327" t="s">
+        <v>12</v>
+      </c>
+      <c r="E327" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>77</v>
+      </c>
+      <c r="B328" t="s">
+        <v>78</v>
+      </c>
+      <c r="C328" t="s">
+        <v>79</v>
+      </c>
+      <c r="D328" t="s">
+        <v>12</v>
+      </c>
+      <c r="E328" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>77</v>
+      </c>
+      <c r="B329" t="s">
+        <v>78</v>
+      </c>
+      <c r="C329" t="s">
+        <v>79</v>
+      </c>
+      <c r="D329" t="s">
+        <v>12</v>
+      </c>
+      <c r="E329" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>77</v>
+      </c>
+      <c r="B330" t="s">
+        <v>78</v>
+      </c>
+      <c r="C330" t="s">
+        <v>79</v>
+      </c>
+      <c r="D330" t="s">
+        <v>12</v>
+      </c>
+      <c r="E330" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>77</v>
+      </c>
+      <c r="B331" t="s">
+        <v>78</v>
+      </c>
+      <c r="C331" t="s">
+        <v>79</v>
+      </c>
+      <c r="D331" t="s">
+        <v>10</v>
+      </c>
+      <c r="E331" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>77</v>
+      </c>
+      <c r="B332" t="s">
+        <v>78</v>
+      </c>
+      <c r="C332" t="s">
+        <v>79</v>
+      </c>
+      <c r="D332" t="s">
+        <v>10</v>
+      </c>
+      <c r="E332" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>77</v>
+      </c>
+      <c r="B333" t="s">
+        <v>78</v>
+      </c>
+      <c r="C333" t="s">
+        <v>79</v>
+      </c>
+      <c r="D333" t="s">
+        <v>12</v>
+      </c>
+      <c r="E333" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>77</v>
+      </c>
+      <c r="B334" t="s">
+        <v>78</v>
+      </c>
+      <c r="C334" t="s">
+        <v>79</v>
+      </c>
+      <c r="D334" t="s">
+        <v>12</v>
+      </c>
+      <c r="E334" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>77</v>
+      </c>
+      <c r="B335" t="s">
+        <v>78</v>
+      </c>
+      <c r="C335" t="s">
+        <v>79</v>
+      </c>
+      <c r="D335" t="s">
+        <v>12</v>
+      </c>
+      <c r="E335" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>77</v>
+      </c>
+      <c r="B336" t="s">
+        <v>78</v>
+      </c>
+      <c r="C336" t="s">
+        <v>79</v>
+      </c>
+      <c r="D336" t="s">
+        <v>12</v>
+      </c>
+      <c r="E336" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>77</v>
+      </c>
+      <c r="B337" t="s">
+        <v>78</v>
+      </c>
+      <c r="C337" t="s">
+        <v>79</v>
+      </c>
+      <c r="D337" t="s">
+        <v>12</v>
+      </c>
+      <c r="E337" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>77</v>
+      </c>
+      <c r="B338" t="s">
+        <v>78</v>
+      </c>
+      <c r="C338" t="s">
+        <v>79</v>
+      </c>
+      <c r="D338" t="s">
+        <v>10</v>
+      </c>
+      <c r="E338" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>77</v>
+      </c>
+      <c r="B339" t="s">
+        <v>78</v>
+      </c>
+      <c r="C339" t="s">
+        <v>79</v>
+      </c>
+      <c r="D339" t="s">
+        <v>10</v>
+      </c>
+      <c r="E339" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>77</v>
+      </c>
+      <c r="B340" t="s">
+        <v>78</v>
+      </c>
+      <c r="C340" t="s">
+        <v>79</v>
+      </c>
+      <c r="D340" t="s">
+        <v>12</v>
+      </c>
+      <c r="E340" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>77</v>
+      </c>
+      <c r="B341" t="s">
+        <v>78</v>
+      </c>
+      <c r="C341" t="s">
+        <v>79</v>
+      </c>
+      <c r="D341" t="s">
+        <v>12</v>
+      </c>
+      <c r="E341" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>77</v>
+      </c>
+      <c r="B342" t="s">
+        <v>78</v>
+      </c>
+      <c r="C342" t="s">
+        <v>79</v>
+      </c>
+      <c r="D342" t="s">
+        <v>12</v>
+      </c>
+      <c r="E342" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>77</v>
+      </c>
+      <c r="B343" t="s">
+        <v>78</v>
+      </c>
+      <c r="C343" t="s">
+        <v>79</v>
+      </c>
+      <c r="D343" t="s">
+        <v>12</v>
+      </c>
+      <c r="E343" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>77</v>
+      </c>
+      <c r="B344" t="s">
+        <v>78</v>
+      </c>
+      <c r="C344" t="s">
+        <v>79</v>
+      </c>
+      <c r="D344" t="s">
+        <v>12</v>
+      </c>
+      <c r="E344" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>77</v>
+      </c>
+      <c r="B345" t="s">
+        <v>78</v>
+      </c>
+      <c r="C345" t="s">
+        <v>79</v>
+      </c>
+      <c r="D345" t="s">
+        <v>10</v>
+      </c>
+      <c r="E345" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>77</v>
+      </c>
+      <c r="B346" t="s">
+        <v>78</v>
+      </c>
+      <c r="C346" t="s">
+        <v>79</v>
+      </c>
+      <c r="D346" t="s">
+        <v>10</v>
+      </c>
+      <c r="E346" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>77</v>
+      </c>
+      <c r="B347" t="s">
+        <v>78</v>
+      </c>
+      <c r="C347" t="s">
+        <v>79</v>
+      </c>
+      <c r="D347" t="s">
+        <v>12</v>
+      </c>
+      <c r="E347" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>77</v>
+      </c>
+      <c r="B348" t="s">
+        <v>78</v>
+      </c>
+      <c r="C348" t="s">
+        <v>79</v>
+      </c>
+      <c r="D348" t="s">
+        <v>12</v>
+      </c>
+      <c r="E348" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>80</v>
+      </c>
+      <c r="B349" t="s">
+        <v>81</v>
+      </c>
+      <c r="C349" t="s">
+        <v>82</v>
+      </c>
+      <c r="D349" t="s">
+        <v>10</v>
+      </c>
+      <c r="E349" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>80</v>
+      </c>
+      <c r="B350" t="s">
+        <v>81</v>
+      </c>
+      <c r="C350" t="s">
+        <v>82</v>
+      </c>
+      <c r="D350" t="s">
+        <v>12</v>
+      </c>
+      <c r="E350" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>80</v>
+      </c>
+      <c r="B351" t="s">
+        <v>81</v>
+      </c>
+      <c r="C351" t="s">
+        <v>82</v>
+      </c>
+      <c r="D351" t="s">
+        <v>12</v>
+      </c>
+      <c r="E351" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>80</v>
+      </c>
+      <c r="B352" t="s">
+        <v>81</v>
+      </c>
+      <c r="C352" t="s">
+        <v>82</v>
+      </c>
+      <c r="D352" t="s">
+        <v>12</v>
+      </c>
+      <c r="E352" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>80</v>
+      </c>
+      <c r="B353" t="s">
+        <v>81</v>
+      </c>
+      <c r="C353" t="s">
+        <v>82</v>
+      </c>
+      <c r="D353" t="s">
+        <v>12</v>
+      </c>
+      <c r="E353" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>80</v>
+      </c>
+      <c r="B354" t="s">
+        <v>81</v>
+      </c>
+      <c r="C354" t="s">
+        <v>82</v>
+      </c>
+      <c r="D354" t="s">
+        <v>12</v>
+      </c>
+      <c r="E354" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>80</v>
+      </c>
+      <c r="B355" t="s">
+        <v>81</v>
+      </c>
+      <c r="C355" t="s">
+        <v>82</v>
+      </c>
+      <c r="D355" t="s">
+        <v>10</v>
+      </c>
+      <c r="E355" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>80</v>
+      </c>
+      <c r="B356" t="s">
+        <v>81</v>
+      </c>
+      <c r="C356" t="s">
+        <v>82</v>
+      </c>
+      <c r="D356" t="s">
+        <v>10</v>
+      </c>
+      <c r="E356" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>80</v>
+      </c>
+      <c r="B357" t="s">
+        <v>81</v>
+      </c>
+      <c r="C357" t="s">
+        <v>82</v>
+      </c>
+      <c r="D357" t="s">
+        <v>12</v>
+      </c>
+      <c r="E357" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>80</v>
+      </c>
+      <c r="B358" t="s">
+        <v>81</v>
+      </c>
+      <c r="C358" t="s">
+        <v>82</v>
+      </c>
+      <c r="D358" t="s">
+        <v>12</v>
+      </c>
+      <c r="E358" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>80</v>
+      </c>
+      <c r="B359" t="s">
+        <v>81</v>
+      </c>
+      <c r="C359" t="s">
+        <v>82</v>
+      </c>
+      <c r="D359" t="s">
+        <v>12</v>
+      </c>
+      <c r="E359" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>80</v>
+      </c>
+      <c r="B360" t="s">
+        <v>81</v>
+      </c>
+      <c r="C360" t="s">
+        <v>82</v>
+      </c>
+      <c r="D360" t="s">
+        <v>12</v>
+      </c>
+      <c r="E360" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>80</v>
+      </c>
+      <c r="B361" t="s">
+        <v>81</v>
+      </c>
+      <c r="C361" t="s">
+        <v>82</v>
+      </c>
+      <c r="D361" t="s">
+        <v>12</v>
+      </c>
+      <c r="E361" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>80</v>
+      </c>
+      <c r="B362" t="s">
+        <v>81</v>
+      </c>
+      <c r="C362" t="s">
+        <v>82</v>
+      </c>
+      <c r="D362" t="s">
+        <v>10</v>
+      </c>
+      <c r="E362" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>80</v>
+      </c>
+      <c r="B363" t="s">
+        <v>81</v>
+      </c>
+      <c r="C363" t="s">
+        <v>82</v>
+      </c>
+      <c r="D363" t="s">
+        <v>10</v>
+      </c>
+      <c r="E363" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>80</v>
+      </c>
+      <c r="B364" t="s">
+        <v>81</v>
+      </c>
+      <c r="C364" t="s">
+        <v>82</v>
+      </c>
+      <c r="D364" t="s">
+        <v>12</v>
+      </c>
+      <c r="E364" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>80</v>
+      </c>
+      <c r="B365" t="s">
+        <v>81</v>
+      </c>
+      <c r="C365" t="s">
+        <v>82</v>
+      </c>
+      <c r="D365" t="s">
+        <v>12</v>
+      </c>
+      <c r="E365" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>80</v>
+      </c>
+      <c r="B366" t="s">
+        <v>81</v>
+      </c>
+      <c r="C366" t="s">
+        <v>82</v>
+      </c>
+      <c r="D366" t="s">
+        <v>12</v>
+      </c>
+      <c r="E366" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>80</v>
+      </c>
+      <c r="B367" t="s">
+        <v>81</v>
+      </c>
+      <c r="C367" t="s">
+        <v>82</v>
+      </c>
+      <c r="D367" t="s">
+        <v>12</v>
+      </c>
+      <c r="E367" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>80</v>
+      </c>
+      <c r="B368" t="s">
+        <v>81</v>
+      </c>
+      <c r="C368" t="s">
+        <v>82</v>
+      </c>
+      <c r="D368" t="s">
+        <v>12</v>
+      </c>
+      <c r="E368" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>80</v>
+      </c>
+      <c r="B369" t="s">
+        <v>81</v>
+      </c>
+      <c r="C369" t="s">
+        <v>82</v>
+      </c>
+      <c r="D369" t="s">
+        <v>10</v>
+      </c>
+      <c r="E369" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>80</v>
+      </c>
+      <c r="B370" t="s">
+        <v>81</v>
+      </c>
+      <c r="C370" t="s">
+        <v>82</v>
+      </c>
+      <c r="D370" t="s">
+        <v>10</v>
+      </c>
+      <c r="E370" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>80</v>
+      </c>
+      <c r="B371" t="s">
+        <v>81</v>
+      </c>
+      <c r="C371" t="s">
+        <v>82</v>
+      </c>
+      <c r="D371" t="s">
+        <v>12</v>
+      </c>
+      <c r="E371" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>80</v>
+      </c>
+      <c r="B372" t="s">
+        <v>81</v>
+      </c>
+      <c r="C372" t="s">
+        <v>82</v>
+      </c>
+      <c r="D372" t="s">
+        <v>12</v>
+      </c>
+      <c r="E372" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>80</v>
+      </c>
+      <c r="B373" t="s">
+        <v>81</v>
+      </c>
+      <c r="C373" t="s">
+        <v>82</v>
+      </c>
+      <c r="D373" t="s">
+        <v>12</v>
+      </c>
+      <c r="E373" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>80</v>
+      </c>
+      <c r="B374" t="s">
+        <v>81</v>
+      </c>
+      <c r="C374" t="s">
+        <v>82</v>
+      </c>
+      <c r="D374" t="s">
+        <v>12</v>
+      </c>
+      <c r="E374" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>80</v>
+      </c>
+      <c r="B375" t="s">
+        <v>81</v>
+      </c>
+      <c r="C375" t="s">
+        <v>82</v>
+      </c>
+      <c r="D375" t="s">
+        <v>12</v>
+      </c>
+      <c r="E375" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>80</v>
+      </c>
+      <c r="B376" t="s">
+        <v>81</v>
+      </c>
+      <c r="C376" t="s">
+        <v>82</v>
+      </c>
+      <c r="D376" t="s">
+        <v>10</v>
+      </c>
+      <c r="E376" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>80</v>
+      </c>
+      <c r="B377" t="s">
+        <v>81</v>
+      </c>
+      <c r="C377" t="s">
+        <v>82</v>
+      </c>
+      <c r="D377" t="s">
+        <v>10</v>
+      </c>
+      <c r="E377" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>80</v>
+      </c>
+      <c r="B378" t="s">
+        <v>81</v>
+      </c>
+      <c r="C378" t="s">
+        <v>82</v>
+      </c>
+      <c r="D378" t="s">
+        <v>12</v>
+      </c>
+      <c r="E378" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>80</v>
+      </c>
+      <c r="B379" t="s">
+        <v>81</v>
+      </c>
+      <c r="C379" t="s">
+        <v>82</v>
+      </c>
+      <c r="D379" t="s">
+        <v>12</v>
+      </c>
+      <c r="E379" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>83</v>
+      </c>
+      <c r="B380" t="s">
+        <v>84</v>
+      </c>
+      <c r="C380" t="s">
+        <v>85</v>
+      </c>
+      <c r="D380" t="s">
+        <v>10</v>
+      </c>
+      <c r="E380" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>83</v>
+      </c>
+      <c r="B381" t="s">
+        <v>84</v>
+      </c>
+      <c r="C381" t="s">
+        <v>85</v>
+      </c>
+      <c r="D381" t="s">
+        <v>12</v>
+      </c>
+      <c r="E381" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>83</v>
+      </c>
+      <c r="B382" t="s">
+        <v>84</v>
+      </c>
+      <c r="C382" t="s">
+        <v>85</v>
+      </c>
+      <c r="D382" t="s">
+        <v>12</v>
+      </c>
+      <c r="E382" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>83</v>
+      </c>
+      <c r="B383" t="s">
+        <v>84</v>
+      </c>
+      <c r="C383" t="s">
+        <v>85</v>
+      </c>
+      <c r="D383" t="s">
+        <v>12</v>
+      </c>
+      <c r="E383" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>83</v>
+      </c>
+      <c r="B384" t="s">
+        <v>84</v>
+      </c>
+      <c r="C384" t="s">
+        <v>85</v>
+      </c>
+      <c r="D384" t="s">
+        <v>12</v>
+      </c>
+      <c r="E384" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>83</v>
+      </c>
+      <c r="B385" t="s">
+        <v>84</v>
+      </c>
+      <c r="C385" t="s">
+        <v>85</v>
+      </c>
+      <c r="D385" t="s">
+        <v>12</v>
+      </c>
+      <c r="E385" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>83</v>
+      </c>
+      <c r="B386" t="s">
+        <v>84</v>
+      </c>
+      <c r="C386" t="s">
+        <v>85</v>
+      </c>
+      <c r="D386" t="s">
+        <v>10</v>
+      </c>
+      <c r="E386" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>83</v>
+      </c>
+      <c r="B387" t="s">
+        <v>84</v>
+      </c>
+      <c r="C387" t="s">
+        <v>85</v>
+      </c>
+      <c r="D387" t="s">
+        <v>10</v>
+      </c>
+      <c r="E387" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>83</v>
+      </c>
+      <c r="B388" t="s">
+        <v>84</v>
+      </c>
+      <c r="C388" t="s">
+        <v>85</v>
+      </c>
+      <c r="D388" t="s">
+        <v>12</v>
+      </c>
+      <c r="E388" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>83</v>
+      </c>
+      <c r="B389" t="s">
+        <v>84</v>
+      </c>
+      <c r="C389" t="s">
+        <v>85</v>
+      </c>
+      <c r="D389" t="s">
+        <v>12</v>
+      </c>
+      <c r="E389" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>83</v>
+      </c>
+      <c r="B390" t="s">
+        <v>84</v>
+      </c>
+      <c r="C390" t="s">
+        <v>85</v>
+      </c>
+      <c r="D390" t="s">
+        <v>12</v>
+      </c>
+      <c r="E390" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>83</v>
+      </c>
+      <c r="B391" t="s">
+        <v>84</v>
+      </c>
+      <c r="C391" t="s">
+        <v>85</v>
+      </c>
+      <c r="D391" t="s">
+        <v>12</v>
+      </c>
+      <c r="E391" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>83</v>
+      </c>
+      <c r="B392" t="s">
+        <v>84</v>
+      </c>
+      <c r="C392" t="s">
+        <v>85</v>
+      </c>
+      <c r="D392" t="s">
+        <v>12</v>
+      </c>
+      <c r="E392" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>83</v>
+      </c>
+      <c r="B393" t="s">
+        <v>84</v>
+      </c>
+      <c r="C393" t="s">
+        <v>85</v>
+      </c>
+      <c r="D393" t="s">
+        <v>10</v>
+      </c>
+      <c r="E393" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>83</v>
+      </c>
+      <c r="B394" t="s">
+        <v>84</v>
+      </c>
+      <c r="C394" t="s">
+        <v>85</v>
+      </c>
+      <c r="D394" t="s">
+        <v>10</v>
+      </c>
+      <c r="E394" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>83</v>
+      </c>
+      <c r="B395" t="s">
+        <v>84</v>
+      </c>
+      <c r="C395" t="s">
+        <v>85</v>
+      </c>
+      <c r="D395" t="s">
+        <v>12</v>
+      </c>
+      <c r="E395" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
+        <v>83</v>
+      </c>
+      <c r="B396" t="s">
+        <v>84</v>
+      </c>
+      <c r="C396" t="s">
+        <v>85</v>
+      </c>
+      <c r="D396" t="s">
+        <v>12</v>
+      </c>
+      <c r="E396" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>83</v>
+      </c>
+      <c r="B397" t="s">
+        <v>84</v>
+      </c>
+      <c r="C397" t="s">
+        <v>85</v>
+      </c>
+      <c r="D397" t="s">
+        <v>12</v>
+      </c>
+      <c r="E397" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>83</v>
+      </c>
+      <c r="B398" t="s">
+        <v>84</v>
+      </c>
+      <c r="C398" t="s">
+        <v>85</v>
+      </c>
+      <c r="D398" t="s">
+        <v>12</v>
+      </c>
+      <c r="E398" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
+        <v>83</v>
+      </c>
+      <c r="B399" t="s">
+        <v>84</v>
+      </c>
+      <c r="C399" t="s">
+        <v>85</v>
+      </c>
+      <c r="D399" t="s">
+        <v>12</v>
+      </c>
+      <c r="E399" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
+        <v>83</v>
+      </c>
+      <c r="B400" t="s">
+        <v>84</v>
+      </c>
+      <c r="C400" t="s">
+        <v>85</v>
+      </c>
+      <c r="D400" t="s">
+        <v>10</v>
+      </c>
+      <c r="E400" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>83</v>
+      </c>
+      <c r="B401" t="s">
+        <v>84</v>
+      </c>
+      <c r="C401" t="s">
+        <v>85</v>
+      </c>
+      <c r="D401" t="s">
+        <v>10</v>
+      </c>
+      <c r="E401" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>83</v>
+      </c>
+      <c r="B402" t="s">
+        <v>84</v>
+      </c>
+      <c r="C402" t="s">
+        <v>85</v>
+      </c>
+      <c r="D402" t="s">
+        <v>12</v>
+      </c>
+      <c r="E402" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
+        <v>83</v>
+      </c>
+      <c r="B403" t="s">
+        <v>84</v>
+      </c>
+      <c r="C403" t="s">
+        <v>85</v>
+      </c>
+      <c r="D403" t="s">
+        <v>12</v>
+      </c>
+      <c r="E403" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>83</v>
+      </c>
+      <c r="B404" t="s">
+        <v>84</v>
+      </c>
+      <c r="C404" t="s">
+        <v>85</v>
+      </c>
+      <c r="D404" t="s">
+        <v>12</v>
+      </c>
+      <c r="E404" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
+        <v>83</v>
+      </c>
+      <c r="B405" t="s">
+        <v>84</v>
+      </c>
+      <c r="C405" t="s">
+        <v>85</v>
+      </c>
+      <c r="D405" t="s">
+        <v>12</v>
+      </c>
+      <c r="E405" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
+        <v>83</v>
+      </c>
+      <c r="B406" t="s">
+        <v>84</v>
+      </c>
+      <c r="C406" t="s">
+        <v>85</v>
+      </c>
+      <c r="D406" t="s">
+        <v>12</v>
+      </c>
+      <c r="E406" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
+        <v>83</v>
+      </c>
+      <c r="B407" t="s">
+        <v>84</v>
+      </c>
+      <c r="C407" t="s">
+        <v>85</v>
+      </c>
+      <c r="D407" t="s">
+        <v>10</v>
+      </c>
+      <c r="E407" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
+        <v>83</v>
+      </c>
+      <c r="B408" t="s">
+        <v>84</v>
+      </c>
+      <c r="C408" t="s">
+        <v>85</v>
+      </c>
+      <c r="D408" t="s">
+        <v>10</v>
+      </c>
+      <c r="E408" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
+        <v>83</v>
+      </c>
+      <c r="B409" t="s">
+        <v>84</v>
+      </c>
+      <c r="C409" t="s">
+        <v>85</v>
+      </c>
+      <c r="D409" t="s">
+        <v>12</v>
+      </c>
+      <c r="E409" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
+        <v>83</v>
+      </c>
+      <c r="B410" t="s">
+        <v>84</v>
+      </c>
+      <c r="C410" t="s">
+        <v>85</v>
+      </c>
+      <c r="D410" t="s">
+        <v>12</v>
+      </c>
+      <c r="E410" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A411" t="s">
+        <v>86</v>
+      </c>
+      <c r="B411" t="s">
+        <v>87</v>
+      </c>
+      <c r="C411" t="s">
+        <v>88</v>
+      </c>
+      <c r="D411" t="s">
+        <v>10</v>
+      </c>
+      <c r="E411" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A412" t="s">
+        <v>86</v>
+      </c>
+      <c r="B412" t="s">
+        <v>87</v>
+      </c>
+      <c r="C412" t="s">
+        <v>88</v>
+      </c>
+      <c r="D412" t="s">
+        <v>12</v>
+      </c>
+      <c r="E412" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A413" t="s">
+        <v>86</v>
+      </c>
+      <c r="B413" t="s">
+        <v>87</v>
+      </c>
+      <c r="C413" t="s">
+        <v>88</v>
+      </c>
+      <c r="D413" t="s">
+        <v>12</v>
+      </c>
+      <c r="E413" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A414" t="s">
+        <v>86</v>
+      </c>
+      <c r="B414" t="s">
+        <v>87</v>
+      </c>
+      <c r="C414" t="s">
+        <v>88</v>
+      </c>
+      <c r="D414" t="s">
+        <v>12</v>
+      </c>
+      <c r="E414" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A415" t="s">
+        <v>86</v>
+      </c>
+      <c r="B415" t="s">
+        <v>87</v>
+      </c>
+      <c r="C415" t="s">
+        <v>88</v>
+      </c>
+      <c r="D415" t="s">
+        <v>12</v>
+      </c>
+      <c r="E415" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A416" t="s">
+        <v>86</v>
+      </c>
+      <c r="B416" t="s">
+        <v>87</v>
+      </c>
+      <c r="C416" t="s">
+        <v>88</v>
+      </c>
+      <c r="D416" t="s">
+        <v>12</v>
+      </c>
+      <c r="E416" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A417" t="s">
+        <v>86</v>
+      </c>
+      <c r="B417" t="s">
+        <v>87</v>
+      </c>
+      <c r="C417" t="s">
+        <v>88</v>
+      </c>
+      <c r="D417" t="s">
+        <v>10</v>
+      </c>
+      <c r="E417" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A418" t="s">
+        <v>86</v>
+      </c>
+      <c r="B418" t="s">
+        <v>87</v>
+      </c>
+      <c r="C418" t="s">
+        <v>88</v>
+      </c>
+      <c r="D418" t="s">
+        <v>10</v>
+      </c>
+      <c r="E418" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A419" t="s">
+        <v>86</v>
+      </c>
+      <c r="B419" t="s">
+        <v>87</v>
+      </c>
+      <c r="C419" t="s">
+        <v>88</v>
+      </c>
+      <c r="D419" t="s">
+        <v>12</v>
+      </c>
+      <c r="E419" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A420" t="s">
+        <v>86</v>
+      </c>
+      <c r="B420" t="s">
+        <v>87</v>
+      </c>
+      <c r="C420" t="s">
+        <v>88</v>
+      </c>
+      <c r="D420" t="s">
+        <v>12</v>
+      </c>
+      <c r="E420" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A421" t="s">
+        <v>86</v>
+      </c>
+      <c r="B421" t="s">
+        <v>87</v>
+      </c>
+      <c r="C421" t="s">
+        <v>88</v>
+      </c>
+      <c r="D421" t="s">
+        <v>12</v>
+      </c>
+      <c r="E421" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A422" t="s">
+        <v>86</v>
+      </c>
+      <c r="B422" t="s">
+        <v>87</v>
+      </c>
+      <c r="C422" t="s">
+        <v>88</v>
+      </c>
+      <c r="D422" t="s">
+        <v>12</v>
+      </c>
+      <c r="E422" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A423" t="s">
+        <v>86</v>
+      </c>
+      <c r="B423" t="s">
+        <v>87</v>
+      </c>
+      <c r="C423" t="s">
+        <v>88</v>
+      </c>
+      <c r="D423" t="s">
+        <v>12</v>
+      </c>
+      <c r="E423" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A424" t="s">
+        <v>86</v>
+      </c>
+      <c r="B424" t="s">
+        <v>87</v>
+      </c>
+      <c r="C424" t="s">
+        <v>88</v>
+      </c>
+      <c r="D424" t="s">
+        <v>10</v>
+      </c>
+      <c r="E424" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A425" t="s">
+        <v>86</v>
+      </c>
+      <c r="B425" t="s">
+        <v>87</v>
+      </c>
+      <c r="C425" t="s">
+        <v>88</v>
+      </c>
+      <c r="D425" t="s">
+        <v>10</v>
+      </c>
+      <c r="E425" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A426" t="s">
+        <v>86</v>
+      </c>
+      <c r="B426" t="s">
+        <v>87</v>
+      </c>
+      <c r="C426" t="s">
+        <v>88</v>
+      </c>
+      <c r="D426" t="s">
+        <v>12</v>
+      </c>
+      <c r="E426" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A427" t="s">
+        <v>86</v>
+      </c>
+      <c r="B427" t="s">
+        <v>87</v>
+      </c>
+      <c r="C427" t="s">
+        <v>88</v>
+      </c>
+      <c r="D427" t="s">
+        <v>12</v>
+      </c>
+      <c r="E427" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A428" t="s">
+        <v>86</v>
+      </c>
+      <c r="B428" t="s">
+        <v>87</v>
+      </c>
+      <c r="C428" t="s">
+        <v>88</v>
+      </c>
+      <c r="D428" t="s">
+        <v>12</v>
+      </c>
+      <c r="E428" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A429" t="s">
+        <v>86</v>
+      </c>
+      <c r="B429" t="s">
+        <v>87</v>
+      </c>
+      <c r="C429" t="s">
+        <v>88</v>
+      </c>
+      <c r="D429" t="s">
+        <v>12</v>
+      </c>
+      <c r="E429" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A430" t="s">
+        <v>86</v>
+      </c>
+      <c r="B430" t="s">
+        <v>87</v>
+      </c>
+      <c r="C430" t="s">
+        <v>88</v>
+      </c>
+      <c r="D430" t="s">
+        <v>12</v>
+      </c>
+      <c r="E430" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A431" t="s">
+        <v>86</v>
+      </c>
+      <c r="B431" t="s">
+        <v>87</v>
+      </c>
+      <c r="C431" t="s">
+        <v>88</v>
+      </c>
+      <c r="D431" t="s">
+        <v>10</v>
+      </c>
+      <c r="E431" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
+        <v>86</v>
+      </c>
+      <c r="B432" t="s">
+        <v>87</v>
+      </c>
+      <c r="C432" t="s">
+        <v>88</v>
+      </c>
+      <c r="D432" t="s">
+        <v>10</v>
+      </c>
+      <c r="E432" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
+        <v>86</v>
+      </c>
+      <c r="B433" t="s">
+        <v>87</v>
+      </c>
+      <c r="C433" t="s">
+        <v>88</v>
+      </c>
+      <c r="D433" t="s">
+        <v>12</v>
+      </c>
+      <c r="E433" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A434" t="s">
+        <v>86</v>
+      </c>
+      <c r="B434" t="s">
+        <v>87</v>
+      </c>
+      <c r="C434" t="s">
+        <v>88</v>
+      </c>
+      <c r="D434" t="s">
+        <v>12</v>
+      </c>
+      <c r="E434" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A435" t="s">
+        <v>86</v>
+      </c>
+      <c r="B435" t="s">
+        <v>87</v>
+      </c>
+      <c r="C435" t="s">
+        <v>88</v>
+      </c>
+      <c r="D435" t="s">
+        <v>12</v>
+      </c>
+      <c r="E435" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A436" t="s">
+        <v>86</v>
+      </c>
+      <c r="B436" t="s">
+        <v>87</v>
+      </c>
+      <c r="C436" t="s">
+        <v>88</v>
+      </c>
+      <c r="D436" t="s">
+        <v>12</v>
+      </c>
+      <c r="E436" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A437" t="s">
+        <v>86</v>
+      </c>
+      <c r="B437" t="s">
+        <v>87</v>
+      </c>
+      <c r="C437" t="s">
+        <v>88</v>
+      </c>
+      <c r="D437" t="s">
+        <v>12</v>
+      </c>
+      <c r="E437" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A438" t="s">
+        <v>86</v>
+      </c>
+      <c r="B438" t="s">
+        <v>87</v>
+      </c>
+      <c r="C438" t="s">
+        <v>88</v>
+      </c>
+      <c r="D438" t="s">
+        <v>10</v>
+      </c>
+      <c r="E438" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A439" t="s">
+        <v>86</v>
+      </c>
+      <c r="B439" t="s">
+        <v>87</v>
+      </c>
+      <c r="C439" t="s">
+        <v>88</v>
+      </c>
+      <c r="D439" t="s">
+        <v>10</v>
+      </c>
+      <c r="E439" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A440" t="s">
+        <v>86</v>
+      </c>
+      <c r="B440" t="s">
+        <v>87</v>
+      </c>
+      <c r="C440" t="s">
+        <v>88</v>
+      </c>
+      <c r="D440" t="s">
+        <v>12</v>
+      </c>
+      <c r="E440" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A441" t="s">
+        <v>86</v>
+      </c>
+      <c r="B441" t="s">
+        <v>87</v>
+      </c>
+      <c r="C441" t="s">
+        <v>88</v>
+      </c>
+      <c r="D441" t="s">
+        <v>12</v>
+      </c>
+      <c r="E441" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
